--- a/data/lucy/Lucy.xlsx
+++ b/data/lucy/Lucy.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maacr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maacr\Programming\DEI\src\data\lucy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC18BA67-5036-44C7-A406-9D75760A38CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6B21D0-8BE4-41D9-8246-AB58AC9F9821}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="90" windowWidth="14265" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14445" yWindow="90" windowWidth="14265" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="vert (merged)" sheetId="1" r:id="rId1"/>
-    <sheet name="vert_norm (merged)" sheetId="2" r:id="rId2"/>
+    <sheet name="vert" sheetId="3" r:id="rId1"/>
+    <sheet name="vert_norm" sheetId="4" r:id="rId2"/>
+    <sheet name="vert (merged)" sheetId="1" r:id="rId3"/>
+    <sheet name="vert_norm (merged)" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,8 +67,114 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,8 +196,166 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -97,12 +363,157 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -110,11 +521,49 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="1" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="5" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="6" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="7" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="8" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="4" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -391,10 +840,6136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AA0227-1638-4C5A-8ECB-1A22402E206E}">
+  <dimension ref="A1:G127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>32</v>
+      </c>
+      <c r="B1">
+        <v>64</v>
+      </c>
+      <c r="C1">
+        <v>64</v>
+      </c>
+      <c r="D1">
+        <v>52732</v>
+      </c>
+      <c r="E1">
+        <v>56102</v>
+      </c>
+      <c r="F1">
+        <v>499</v>
+      </c>
+      <c r="G1" s="1">
+        <f t="shared" ref="G1:G64" si="0">(F1+1)/(E1-D1)*1000</f>
+        <v>148.36795252225519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>128</v>
+      </c>
+      <c r="D2">
+        <v>54765</v>
+      </c>
+      <c r="E2">
+        <v>58250</v>
+      </c>
+      <c r="F2">
+        <v>499</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" si="0"/>
+        <v>143.47202295552367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>55193</v>
+      </c>
+      <c r="E3">
+        <v>58810</v>
+      </c>
+      <c r="F3">
+        <v>499</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>138.23610727121923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>128</v>
+      </c>
+      <c r="C4">
+        <v>128</v>
+      </c>
+      <c r="D4">
+        <v>44371</v>
+      </c>
+      <c r="E4">
+        <v>48062</v>
+      </c>
+      <c r="F4">
+        <v>499</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>135.46464372798701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>55674</v>
+      </c>
+      <c r="E5">
+        <v>59371</v>
+      </c>
+      <c r="F5">
+        <v>499</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>135.24479307546662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>256</v>
+      </c>
+      <c r="D6">
+        <v>54473</v>
+      </c>
+      <c r="E6">
+        <v>58199</v>
+      </c>
+      <c r="F6">
+        <v>499</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>134.19216317767044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>58816</v>
+      </c>
+      <c r="E7">
+        <v>62679</v>
+      </c>
+      <c r="F7">
+        <v>499</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>129.43308309603935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>59378</v>
+      </c>
+      <c r="E8">
+        <v>63290</v>
+      </c>
+      <c r="F8">
+        <v>499</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>127.8118609406953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>56108</v>
+      </c>
+      <c r="E9">
+        <v>60100</v>
+      </c>
+      <c r="F9">
+        <v>499</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>125.250501002004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>54560</v>
+      </c>
+      <c r="E10">
+        <v>58563</v>
+      </c>
+      <c r="F10">
+        <v>499</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>124.90632025980516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>128</v>
+      </c>
+      <c r="D11">
+        <v>59893</v>
+      </c>
+      <c r="E11">
+        <v>63935</v>
+      </c>
+      <c r="F11">
+        <v>499</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>123.70113805047006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>128</v>
+      </c>
+      <c r="C12">
+        <v>256</v>
+      </c>
+      <c r="D12">
+        <v>49426</v>
+      </c>
+      <c r="E12">
+        <v>53492</v>
+      </c>
+      <c r="F12">
+        <v>499</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>122.97097884899163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>128</v>
+      </c>
+      <c r="D13">
+        <v>63943</v>
+      </c>
+      <c r="E13">
+        <v>68019</v>
+      </c>
+      <c r="F13">
+        <v>499</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>122.6692836113837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>128</v>
+      </c>
+      <c r="C14">
+        <v>512</v>
+      </c>
+      <c r="D14">
+        <v>50185</v>
+      </c>
+      <c r="E14">
+        <v>54310</v>
+      </c>
+      <c r="F14">
+        <v>499</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>121.21212121212122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>128</v>
+      </c>
+      <c r="D15">
+        <v>58257</v>
+      </c>
+      <c r="E15">
+        <v>62384</v>
+      </c>
+      <c r="F15">
+        <v>499</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>121.15338017930701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>512</v>
+      </c>
+      <c r="D16">
+        <v>53095</v>
+      </c>
+      <c r="E16">
+        <v>57299</v>
+      </c>
+      <c r="F16">
+        <v>499</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>118.93434823977164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>256</v>
+      </c>
+      <c r="D17">
+        <v>58205</v>
+      </c>
+      <c r="E17">
+        <v>62509</v>
+      </c>
+      <c r="F17">
+        <v>499</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>116.17100371747212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>61128</v>
+      </c>
+      <c r="E18">
+        <v>65498</v>
+      </c>
+      <c r="F18">
+        <v>499</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>114.41647597254006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>256</v>
+      </c>
+      <c r="D19">
+        <v>57050</v>
+      </c>
+      <c r="E19">
+        <v>61476</v>
+      </c>
+      <c r="F19">
+        <v>499</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>112.96882060551287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>128</v>
+      </c>
+      <c r="C20">
+        <v>64</v>
+      </c>
+      <c r="D20">
+        <v>50610</v>
+      </c>
+      <c r="E20">
+        <v>55062</v>
+      </c>
+      <c r="F20">
+        <v>499</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>112.30907457322552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>256</v>
+      </c>
+      <c r="D21">
+        <v>61484</v>
+      </c>
+      <c r="E21">
+        <v>65965</v>
+      </c>
+      <c r="F21">
+        <v>499</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>111.5822361080116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>58570</v>
+      </c>
+      <c r="E22">
+        <v>63213</v>
+      </c>
+      <c r="F22">
+        <v>499</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>107.68899418479431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>59794</v>
+      </c>
+      <c r="E23">
+        <v>64485</v>
+      </c>
+      <c r="F23">
+        <v>499</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>106.58708164570454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>60205</v>
+      </c>
+      <c r="E24">
+        <v>64905</v>
+      </c>
+      <c r="F24">
+        <v>499</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>106.38297872340425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>65506</v>
+      </c>
+      <c r="E25">
+        <v>70213</v>
+      </c>
+      <c r="F25">
+        <v>499</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>106.22477161674102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>512</v>
+      </c>
+      <c r="D26">
+        <v>57306</v>
+      </c>
+      <c r="E26">
+        <v>62090</v>
+      </c>
+      <c r="F26">
+        <v>499</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>104.51505016722408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>59886</v>
+      </c>
+      <c r="E27">
+        <v>64704</v>
+      </c>
+      <c r="F27">
+        <v>499</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>103.77750103777501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>54781</v>
+      </c>
+      <c r="E28">
+        <v>59785</v>
+      </c>
+      <c r="F28">
+        <v>499</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>99.920063948840919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>55190</v>
+      </c>
+      <c r="E29">
+        <v>60196</v>
+      </c>
+      <c r="F29">
+        <v>499</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>99.88014382740711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>56218</v>
+      </c>
+      <c r="E30">
+        <v>61301</v>
+      </c>
+      <c r="F30">
+        <v>499</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>98.367106039740307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>128</v>
+      </c>
+      <c r="C31">
+        <v>128</v>
+      </c>
+      <c r="D31">
+        <v>48069</v>
+      </c>
+      <c r="E31">
+        <v>53200</v>
+      </c>
+      <c r="F31">
+        <v>499</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>97.446891444162929</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>64</v>
+      </c>
+      <c r="D32">
+        <v>54719</v>
+      </c>
+      <c r="E32">
+        <v>59876</v>
+      </c>
+      <c r="F32">
+        <v>499</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>96.955594337793286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>128</v>
+      </c>
+      <c r="D33">
+        <v>60564</v>
+      </c>
+      <c r="E33">
+        <v>65757</v>
+      </c>
+      <c r="F33">
+        <v>499</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>96.283458501829386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>62686</v>
+      </c>
+      <c r="E34">
+        <v>67891</v>
+      </c>
+      <c r="F34">
+        <v>499</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>96.061479346781937</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>64</v>
+      </c>
+      <c r="D35">
+        <v>63297</v>
+      </c>
+      <c r="E35">
+        <v>68548</v>
+      </c>
+      <c r="F35">
+        <v>499</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>95.219958103218445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>128</v>
+      </c>
+      <c r="D36">
+        <v>68027</v>
+      </c>
+      <c r="E36">
+        <v>73440</v>
+      </c>
+      <c r="F36">
+        <v>499</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>92.370219841123216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>32</v>
+      </c>
+      <c r="C37">
+        <v>512</v>
+      </c>
+      <c r="D37">
+        <v>54689</v>
+      </c>
+      <c r="E37">
+        <v>60175</v>
+      </c>
+      <c r="F37">
+        <v>499</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>91.141086401749902</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>128</v>
+      </c>
+      <c r="D38">
+        <v>55055</v>
+      </c>
+      <c r="E38">
+        <v>60554</v>
+      </c>
+      <c r="F38">
+        <v>499</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>90.925622840516453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <v>512</v>
+      </c>
+      <c r="D39">
+        <v>60185</v>
+      </c>
+      <c r="E39">
+        <v>65906</v>
+      </c>
+      <c r="F39">
+        <v>499</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>87.397308162908587</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <v>256</v>
+      </c>
+      <c r="D40">
+        <v>65973</v>
+      </c>
+      <c r="E40">
+        <v>71727</v>
+      </c>
+      <c r="F40">
+        <v>499</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>86.896072297532157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>128</v>
+      </c>
+      <c r="C41">
+        <v>256</v>
+      </c>
+      <c r="D41">
+        <v>53499</v>
+      </c>
+      <c r="E41">
+        <v>59264</v>
+      </c>
+      <c r="F41">
+        <v>499</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>86.730268863833473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>128</v>
+      </c>
+      <c r="C42">
+        <v>512</v>
+      </c>
+      <c r="D42">
+        <v>54316</v>
+      </c>
+      <c r="E42">
+        <v>60117</v>
+      </c>
+      <c r="F42">
+        <v>499</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>86.192035855886914</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>128</v>
+      </c>
+      <c r="C43">
+        <v>64</v>
+      </c>
+      <c r="D43">
+        <v>55070</v>
+      </c>
+      <c r="E43">
+        <v>60898</v>
+      </c>
+      <c r="F43">
+        <v>499</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>85.792724776938911</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>32</v>
+      </c>
+      <c r="B44">
+        <v>128</v>
+      </c>
+      <c r="C44">
+        <v>32</v>
+      </c>
+      <c r="D44">
+        <v>50981</v>
+      </c>
+      <c r="E44">
+        <v>56815</v>
+      </c>
+      <c r="F44">
+        <v>499</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="0"/>
+        <v>85.704490915323959</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <v>256</v>
+      </c>
+      <c r="C45">
+        <v>256</v>
+      </c>
+      <c r="D45">
+        <v>52591</v>
+      </c>
+      <c r="E45">
+        <v>58491</v>
+      </c>
+      <c r="F45">
+        <v>499</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>84.745762711864401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>256</v>
+      </c>
+      <c r="C46">
+        <v>512</v>
+      </c>
+      <c r="D46">
+        <v>52295</v>
+      </c>
+      <c r="E46">
+        <v>58261</v>
+      </c>
+      <c r="F46">
+        <v>499</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>83.808246731478377</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>64494</v>
+      </c>
+      <c r="E47">
+        <v>70469</v>
+      </c>
+      <c r="F47">
+        <v>499</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="0"/>
+        <v>83.682008368200826</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>32</v>
+      </c>
+      <c r="D48">
+        <v>64914</v>
+      </c>
+      <c r="E48">
+        <v>70895</v>
+      </c>
+      <c r="F48">
+        <v>499</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="0"/>
+        <v>83.59806052499583</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>64</v>
+      </c>
+      <c r="D49">
+        <v>60108</v>
+      </c>
+      <c r="E49">
+        <v>66091</v>
+      </c>
+      <c r="F49">
+        <v>499</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="0"/>
+        <v>83.570115326759151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>62936</v>
+      </c>
+      <c r="E50">
+        <v>68926</v>
+      </c>
+      <c r="F50">
+        <v>499</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="0"/>
+        <v>83.472454090150251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <v>64</v>
+      </c>
+      <c r="C51">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>61310</v>
+      </c>
+      <c r="E51">
+        <v>67307</v>
+      </c>
+      <c r="F51">
+        <v>499</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="0"/>
+        <v>83.375020843755209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>32</v>
+      </c>
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>70223</v>
+      </c>
+      <c r="E52">
+        <v>76251</v>
+      </c>
+      <c r="F52">
+        <v>499</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="0"/>
+        <v>82.946250829462514</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>64</v>
+      </c>
+      <c r="D53">
+        <v>64714</v>
+      </c>
+      <c r="E53">
+        <v>70830</v>
+      </c>
+      <c r="F53">
+        <v>499</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="0"/>
+        <v>81.752779594506222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>64</v>
+      </c>
+      <c r="C54">
+        <v>128</v>
+      </c>
+      <c r="D54">
+        <v>62392</v>
+      </c>
+      <c r="E54">
+        <v>68626</v>
+      </c>
+      <c r="F54">
+        <v>499</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="0"/>
+        <v>80.205325633622081</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>32</v>
+      </c>
+      <c r="B55">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>56599</v>
+      </c>
+      <c r="E55">
+        <v>62924</v>
+      </c>
+      <c r="F55">
+        <v>499</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="0"/>
+        <v>79.051383399209485</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>32</v>
+      </c>
+      <c r="B56">
+        <v>32</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>60950</v>
+      </c>
+      <c r="E56">
+        <v>67297</v>
+      </c>
+      <c r="F56">
+        <v>499</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="0"/>
+        <v>78.777375137860403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>256</v>
+      </c>
+      <c r="D57">
+        <v>60933</v>
+      </c>
+      <c r="E57">
+        <v>67314</v>
+      </c>
+      <c r="F57">
+        <v>499</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="0"/>
+        <v>78.357624196834351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>32</v>
+      </c>
+      <c r="B58">
+        <v>256</v>
+      </c>
+      <c r="C58">
+        <v>128</v>
+      </c>
+      <c r="D58">
+        <v>50655</v>
+      </c>
+      <c r="E58">
+        <v>57038</v>
+      </c>
+      <c r="F58">
+        <v>499</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="0"/>
+        <v>78.333072223092586</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>16</v>
+      </c>
+      <c r="B59">
+        <v>32</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>67309</v>
+      </c>
+      <c r="E59">
+        <v>73700</v>
+      </c>
+      <c r="F59">
+        <v>499</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="0"/>
+        <v>78.235017994054132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>128</v>
+      </c>
+      <c r="D60">
+        <v>65768</v>
+      </c>
+      <c r="E60">
+        <v>72202</v>
+      </c>
+      <c r="F60">
+        <v>499</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="0"/>
+        <v>77.712154180913899</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>64</v>
+      </c>
+      <c r="C61">
+        <v>256</v>
+      </c>
+      <c r="D61">
+        <v>62517</v>
+      </c>
+      <c r="E61">
+        <v>69060</v>
+      </c>
+      <c r="F61">
+        <v>499</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="0"/>
+        <v>76.417545468439556</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>64</v>
+      </c>
+      <c r="C62">
+        <v>32</v>
+      </c>
+      <c r="D62">
+        <v>63222</v>
+      </c>
+      <c r="E62">
+        <v>69815</v>
+      </c>
+      <c r="F62">
+        <v>499</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="0"/>
+        <v>75.838010010617324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>32</v>
+      </c>
+      <c r="B63">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>256</v>
+      </c>
+      <c r="D63">
+        <v>54247</v>
+      </c>
+      <c r="E63">
+        <v>60921</v>
+      </c>
+      <c r="F63">
+        <v>499</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="0"/>
+        <v>74.917590650284694</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>32</v>
+      </c>
+      <c r="C64">
+        <v>512</v>
+      </c>
+      <c r="D64">
+        <v>65917</v>
+      </c>
+      <c r="E64">
+        <v>72616</v>
+      </c>
+      <c r="F64">
+        <v>499</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="0"/>
+        <v>74.638005672488433</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>16</v>
+      </c>
+      <c r="B65">
+        <v>128</v>
+      </c>
+      <c r="C65">
+        <v>32</v>
+      </c>
+      <c r="D65">
+        <v>56825</v>
+      </c>
+      <c r="E65">
+        <v>63913</v>
+      </c>
+      <c r="F65">
+        <v>499</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" ref="G65:G127" si="1">(F65+1)/(E65-D65)*1000</f>
+        <v>70.541760722347632</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>256</v>
+      </c>
+      <c r="D66">
+        <v>67327</v>
+      </c>
+      <c r="E66">
+        <v>74471</v>
+      </c>
+      <c r="F66">
+        <v>499</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="1"/>
+        <v>69.988801791713328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>64</v>
+      </c>
+      <c r="C67">
+        <v>512</v>
+      </c>
+      <c r="D67">
+        <v>62100</v>
+      </c>
+      <c r="E67">
+        <v>69452</v>
+      </c>
+      <c r="F67">
+        <v>499</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="1"/>
+        <v>68.008705114254624</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>68938</v>
+      </c>
+      <c r="E68">
+        <v>76368</v>
+      </c>
+      <c r="F68">
+        <v>499</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="1"/>
+        <v>67.294751009421276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>161634</v>
+      </c>
+      <c r="E69">
+        <v>169099</v>
+      </c>
+      <c r="F69">
+        <v>499</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="1"/>
+        <v>66.979236436704625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>32</v>
+      </c>
+      <c r="B70">
+        <v>256</v>
+      </c>
+      <c r="C70">
+        <v>64</v>
+      </c>
+      <c r="D70">
+        <v>52482</v>
+      </c>
+      <c r="E70">
+        <v>60188</v>
+      </c>
+      <c r="F70">
+        <v>499</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="1"/>
+        <v>64.884505580067469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>32</v>
+      </c>
+      <c r="B71">
+        <v>128</v>
+      </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+      <c r="D71">
+        <v>49357</v>
+      </c>
+      <c r="E71">
+        <v>57122</v>
+      </c>
+      <c r="F71">
+        <v>499</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="1"/>
+        <v>64.391500321957508</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>32</v>
+      </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
+      <c r="D72">
+        <v>73712</v>
+      </c>
+      <c r="E72">
+        <v>81511</v>
+      </c>
+      <c r="F72">
+        <v>499</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="1"/>
+        <v>64.110783433773562</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>64</v>
+      </c>
+      <c r="C73">
+        <v>16</v>
+      </c>
+      <c r="D73">
+        <v>67319</v>
+      </c>
+      <c r="E73">
+        <v>75388</v>
+      </c>
+      <c r="F73">
+        <v>499</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="1"/>
+        <v>61.965547155781387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>32</v>
+      </c>
+      <c r="B74">
+        <v>64</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>58751</v>
+      </c>
+      <c r="E74">
+        <v>67128</v>
+      </c>
+      <c r="F74">
+        <v>499</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="1"/>
+        <v>59.687238868329956</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>16</v>
+      </c>
+      <c r="D75">
+        <v>80707</v>
+      </c>
+      <c r="E75">
+        <v>89087</v>
+      </c>
+      <c r="F75">
+        <v>499</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="1"/>
+        <v>59.665871121718375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>32</v>
+      </c>
+      <c r="D76">
+        <v>81291</v>
+      </c>
+      <c r="E76">
+        <v>89687</v>
+      </c>
+      <c r="F76">
+        <v>499</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="1"/>
+        <v>59.552167698904242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
+      <c r="D77">
+        <v>82061</v>
+      </c>
+      <c r="E77">
+        <v>90485</v>
+      </c>
+      <c r="F77">
+        <v>499</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="1"/>
+        <v>59.354226020892689</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>128</v>
+      </c>
+      <c r="C78">
+        <v>128</v>
+      </c>
+      <c r="D78">
+        <v>53210</v>
+      </c>
+      <c r="E78">
+        <v>61697</v>
+      </c>
+      <c r="F78">
+        <v>499</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="1"/>
+        <v>58.913632614587016</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>16</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>16</v>
+      </c>
+      <c r="D79">
+        <v>72104</v>
+      </c>
+      <c r="E79">
+        <v>80691</v>
+      </c>
+      <c r="F79">
+        <v>499</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="1"/>
+        <v>58.227553278211246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>16</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>32</v>
+      </c>
+      <c r="D80">
+        <v>72655</v>
+      </c>
+      <c r="E80">
+        <v>81273</v>
+      </c>
+      <c r="F80">
+        <v>499</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="1"/>
+        <v>58.018101647714083</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>16</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>73405</v>
+      </c>
+      <c r="E81">
+        <v>82044</v>
+      </c>
+      <c r="F81">
+        <v>499</v>
+      </c>
+      <c r="G81" s="3">
+        <f t="shared" si="1"/>
+        <v>57.877069105220507</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>64</v>
+      </c>
+      <c r="D82">
+        <v>83387</v>
+      </c>
+      <c r="E82">
+        <v>92064</v>
+      </c>
+      <c r="F82">
+        <v>499</v>
+      </c>
+      <c r="G82" s="3">
+        <f t="shared" si="1"/>
+        <v>57.623602627636281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>16</v>
+      </c>
+      <c r="B83">
+        <v>64</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+      <c r="D83">
+        <v>67144</v>
+      </c>
+      <c r="E83">
+        <v>75834</v>
+      </c>
+      <c r="F83">
+        <v>499</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" si="1"/>
+        <v>57.537399309551205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>16</v>
+      </c>
+      <c r="B84">
+        <v>16</v>
+      </c>
+      <c r="C84">
+        <v>512</v>
+      </c>
+      <c r="D84">
+        <v>64229</v>
+      </c>
+      <c r="E84">
+        <v>72984</v>
+      </c>
+      <c r="F84">
+        <v>499</v>
+      </c>
+      <c r="G84" s="3">
+        <f t="shared" si="1"/>
+        <v>57.110222729868646</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>16</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>64</v>
+      </c>
+      <c r="D85">
+        <v>74499</v>
+      </c>
+      <c r="E85">
+        <v>83369</v>
+      </c>
+      <c r="F85">
+        <v>499</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" si="1"/>
+        <v>56.369785794813978</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>32</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>16</v>
+      </c>
+      <c r="D86">
+        <v>63154</v>
+      </c>
+      <c r="E86">
+        <v>72087</v>
+      </c>
+      <c r="F86">
+        <v>499</v>
+      </c>
+      <c r="G86" s="3">
+        <f t="shared" si="1"/>
+        <v>55.972237770066045</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>32</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>64445</v>
+      </c>
+      <c r="E87">
+        <v>73387</v>
+      </c>
+      <c r="F87">
+        <v>499</v>
+      </c>
+      <c r="G87" s="3">
+        <f t="shared" si="1"/>
+        <v>55.91590248266607</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>32</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>32</v>
+      </c>
+      <c r="D88">
+        <v>63693</v>
+      </c>
+      <c r="E88">
+        <v>72637</v>
+      </c>
+      <c r="F88">
+        <v>499</v>
+      </c>
+      <c r="G88" s="3">
+        <f t="shared" si="1"/>
+        <v>55.903398926654738</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>32</v>
+      </c>
+      <c r="B89">
+        <v>16</v>
+      </c>
+      <c r="C89">
+        <v>512</v>
+      </c>
+      <c r="D89">
+        <v>55104</v>
+      </c>
+      <c r="E89">
+        <v>64212</v>
+      </c>
+      <c r="F89">
+        <v>499</v>
+      </c>
+      <c r="G89" s="3">
+        <f t="shared" si="1"/>
+        <v>54.896794027228808</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>128</v>
+      </c>
+      <c r="D90">
+        <v>83191</v>
+      </c>
+      <c r="E90">
+        <v>92332</v>
+      </c>
+      <c r="F90">
+        <v>499</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" si="1"/>
+        <v>54.69861065528935</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>16</v>
+      </c>
+      <c r="B91">
+        <v>256</v>
+      </c>
+      <c r="C91">
+        <v>256</v>
+      </c>
+      <c r="D91">
+        <v>58502</v>
+      </c>
+      <c r="E91">
+        <v>67694</v>
+      </c>
+      <c r="F91">
+        <v>499</v>
+      </c>
+      <c r="G91" s="3">
+        <f t="shared" si="1"/>
+        <v>54.395126196692772</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>16</v>
+      </c>
+      <c r="B92">
+        <v>256</v>
+      </c>
+      <c r="C92">
+        <v>512</v>
+      </c>
+      <c r="D92">
+        <v>58271</v>
+      </c>
+      <c r="E92">
+        <v>67469</v>
+      </c>
+      <c r="F92">
+        <v>499</v>
+      </c>
+      <c r="G92" s="3">
+        <f t="shared" si="1"/>
+        <v>54.359643400739287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>32</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>64</v>
+      </c>
+      <c r="D93">
+        <v>65281</v>
+      </c>
+      <c r="E93">
+        <v>74481</v>
+      </c>
+      <c r="F93">
+        <v>499</v>
+      </c>
+      <c r="G93" s="3">
+        <f t="shared" si="1"/>
+        <v>54.347826086956523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>16</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>128</v>
+      </c>
+      <c r="D94">
+        <v>73854</v>
+      </c>
+      <c r="E94">
+        <v>83172</v>
+      </c>
+      <c r="F94">
+        <v>499</v>
+      </c>
+      <c r="G94" s="3">
+        <f t="shared" si="1"/>
+        <v>53.659583601631248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>128</v>
+      </c>
+      <c r="C95">
+        <v>64</v>
+      </c>
+      <c r="D95">
+        <v>60910</v>
+      </c>
+      <c r="E95">
+        <v>70348</v>
+      </c>
+      <c r="F95">
+        <v>499</v>
+      </c>
+      <c r="G95" s="3">
+        <f t="shared" si="1"/>
+        <v>52.977325704598435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>32</v>
+      </c>
+      <c r="B96">
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>128</v>
+      </c>
+      <c r="D96">
+        <v>64241</v>
+      </c>
+      <c r="E96">
+        <v>73836</v>
+      </c>
+      <c r="F96">
+        <v>499</v>
+      </c>
+      <c r="G96" s="3">
+        <f t="shared" si="1"/>
+        <v>52.110474205315271</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>16</v>
+      </c>
+      <c r="B97">
+        <v>128</v>
+      </c>
+      <c r="C97">
+        <v>16</v>
+      </c>
+      <c r="D97">
+        <v>57136</v>
+      </c>
+      <c r="E97">
+        <v>66752</v>
+      </c>
+      <c r="F97">
+        <v>499</v>
+      </c>
+      <c r="G97" s="3">
+        <f t="shared" si="1"/>
+        <v>51.996672212978375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>128</v>
+      </c>
+      <c r="C98">
+        <v>256</v>
+      </c>
+      <c r="D98">
+        <v>59277</v>
+      </c>
+      <c r="E98">
+        <v>68918</v>
+      </c>
+      <c r="F98">
+        <v>499</v>
+      </c>
+      <c r="G98" s="3">
+        <f t="shared" si="1"/>
+        <v>51.861840058085257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>128</v>
+      </c>
+      <c r="C99">
+        <v>512</v>
+      </c>
+      <c r="D99">
+        <v>60129</v>
+      </c>
+      <c r="E99">
+        <v>69808</v>
+      </c>
+      <c r="F99">
+        <v>499</v>
+      </c>
+      <c r="G99" s="3">
+        <f t="shared" si="1"/>
+        <v>51.658229155904529</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>16</v>
+      </c>
+      <c r="B100">
+        <v>256</v>
+      </c>
+      <c r="C100">
+        <v>128</v>
+      </c>
+      <c r="D100">
+        <v>57050</v>
+      </c>
+      <c r="E100">
+        <v>66792</v>
+      </c>
+      <c r="F100">
+        <v>499</v>
+      </c>
+      <c r="G100" s="3">
+        <f t="shared" si="1"/>
+        <v>51.324163416136322</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>16</v>
+      </c>
+      <c r="C101">
+        <v>512</v>
+      </c>
+      <c r="D101">
+        <v>73002</v>
+      </c>
+      <c r="E101">
+        <v>82777</v>
+      </c>
+      <c r="F101">
+        <v>499</v>
+      </c>
+      <c r="G101" s="3">
+        <f t="shared" si="1"/>
+        <v>51.150895140664957</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <v>128</v>
+      </c>
+      <c r="C102">
+        <v>32</v>
+      </c>
+      <c r="D102">
+        <v>63927</v>
+      </c>
+      <c r="E102">
+        <v>74508</v>
+      </c>
+      <c r="F102">
+        <v>499</v>
+      </c>
+      <c r="G102" s="3">
+        <f t="shared" si="1"/>
+        <v>47.254512805972965</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>32</v>
+      </c>
+      <c r="B103">
+        <v>256</v>
+      </c>
+      <c r="C103">
+        <v>32</v>
+      </c>
+      <c r="D103">
+        <v>53236</v>
+      </c>
+      <c r="E103">
+        <v>63951</v>
+      </c>
+      <c r="F103">
+        <v>499</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" si="1"/>
+        <v>46.663555762949137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>16</v>
+      </c>
+      <c r="B104">
+        <v>256</v>
+      </c>
+      <c r="C104">
+        <v>64</v>
+      </c>
+      <c r="D104">
+        <v>60202</v>
+      </c>
+      <c r="E104">
+        <v>71048</v>
+      </c>
+      <c r="F104">
+        <v>499</v>
+      </c>
+      <c r="G104" s="3">
+        <f t="shared" si="1"/>
+        <v>46.099944680066379</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>64</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>75850</v>
+      </c>
+      <c r="E105">
+        <v>86727</v>
+      </c>
+      <c r="F105">
+        <v>499</v>
+      </c>
+      <c r="G105" s="3">
+        <f t="shared" si="1"/>
+        <v>45.968557506665441</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>16</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>256</v>
+      </c>
+      <c r="D106">
+        <v>75358</v>
+      </c>
+      <c r="E106">
+        <v>87499</v>
+      </c>
+      <c r="F106">
+        <v>499</v>
+      </c>
+      <c r="G106" s="3">
+        <f t="shared" si="1"/>
+        <v>41.182769129396256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>256</v>
+      </c>
+      <c r="D107">
+        <v>87523</v>
+      </c>
+      <c r="E107">
+        <v>99749</v>
+      </c>
+      <c r="F107">
+        <v>499</v>
+      </c>
+      <c r="G107" s="3">
+        <f t="shared" si="1"/>
+        <v>40.896450188123673</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>32</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>256</v>
+      </c>
+      <c r="D108">
+        <v>62922</v>
+      </c>
+      <c r="E108">
+        <v>75334</v>
+      </c>
+      <c r="F108">
+        <v>499</v>
+      </c>
+      <c r="G108" s="3">
+        <f t="shared" si="1"/>
+        <v>40.283596519497266</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>128</v>
+      </c>
+      <c r="C109">
+        <v>16</v>
+      </c>
+      <c r="D109">
+        <v>66771</v>
+      </c>
+      <c r="E109">
+        <v>79883</v>
+      </c>
+      <c r="F109">
+        <v>499</v>
+      </c>
+      <c r="G109" s="3">
+        <f t="shared" si="1"/>
+        <v>38.133007931665652</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>16</v>
+      </c>
+      <c r="B110">
+        <v>256</v>
+      </c>
+      <c r="C110">
+        <v>32</v>
+      </c>
+      <c r="D110">
+        <v>63972</v>
+      </c>
+      <c r="E110">
+        <v>77421</v>
+      </c>
+      <c r="F110">
+        <v>499</v>
+      </c>
+      <c r="G110" s="3">
+        <f t="shared" si="1"/>
+        <v>37.177485314893303</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>32</v>
+      </c>
+      <c r="B111">
+        <v>128</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+      <c r="D111">
+        <v>56365</v>
+      </c>
+      <c r="E111">
+        <v>70321</v>
+      </c>
+      <c r="F111">
+        <v>499</v>
+      </c>
+      <c r="G111" s="3">
+        <f t="shared" si="1"/>
+        <v>35.826884494124393</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>16</v>
+      </c>
+      <c r="B112">
+        <v>128</v>
+      </c>
+      <c r="C112">
+        <v>8</v>
+      </c>
+      <c r="D112">
+        <v>70349</v>
+      </c>
+      <c r="E112">
+        <v>84684</v>
+      </c>
+      <c r="F112">
+        <v>499</v>
+      </c>
+      <c r="G112" s="3">
+        <f t="shared" si="1"/>
+        <v>34.879665155214511</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>32</v>
+      </c>
+      <c r="B113">
+        <v>256</v>
+      </c>
+      <c r="C113">
+        <v>16</v>
+      </c>
+      <c r="D113">
+        <v>55397</v>
+      </c>
+      <c r="E113">
+        <v>70578</v>
+      </c>
+      <c r="F113">
+        <v>499</v>
+      </c>
+      <c r="G113" s="3">
+        <f t="shared" si="1"/>
+        <v>32.935906725512154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>8</v>
+      </c>
+      <c r="B114">
+        <v>256</v>
+      </c>
+      <c r="C114">
+        <v>256</v>
+      </c>
+      <c r="D114">
+        <v>67712</v>
+      </c>
+      <c r="E114">
+        <v>84174</v>
+      </c>
+      <c r="F114">
+        <v>499</v>
+      </c>
+      <c r="G114" s="3">
+        <f t="shared" si="1"/>
+        <v>30.372980196816911</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>8</v>
+      </c>
+      <c r="B115">
+        <v>256</v>
+      </c>
+      <c r="C115">
+        <v>512</v>
+      </c>
+      <c r="D115">
+        <v>67487</v>
+      </c>
+      <c r="E115">
+        <v>83954</v>
+      </c>
+      <c r="F115">
+        <v>499</v>
+      </c>
+      <c r="G115" s="3">
+        <f t="shared" si="1"/>
+        <v>30.36375781866764</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>8</v>
+      </c>
+      <c r="B116">
+        <v>256</v>
+      </c>
+      <c r="C116">
+        <v>128</v>
+      </c>
+      <c r="D116">
+        <v>66812</v>
+      </c>
+      <c r="E116">
+        <v>83976</v>
+      </c>
+      <c r="F116">
+        <v>499</v>
+      </c>
+      <c r="G116" s="3">
+        <f t="shared" si="1"/>
+        <v>29.130738755534839</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>32</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>512</v>
+      </c>
+      <c r="D117">
+        <v>63230</v>
+      </c>
+      <c r="E117">
+        <v>81183</v>
+      </c>
+      <c r="F117">
+        <v>499</v>
+      </c>
+      <c r="G117" s="3">
+        <f t="shared" si="1"/>
+        <v>27.85049852392358</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>8</v>
+      </c>
+      <c r="B118">
+        <v>256</v>
+      </c>
+      <c r="C118">
+        <v>64</v>
+      </c>
+      <c r="D118">
+        <v>71069</v>
+      </c>
+      <c r="E118">
+        <v>89429</v>
+      </c>
+      <c r="F118">
+        <v>499</v>
+      </c>
+      <c r="G118" s="3">
+        <f t="shared" si="1"/>
+        <v>27.233115468409586</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>8</v>
+      </c>
+      <c r="B119">
+        <v>128</v>
+      </c>
+      <c r="C119">
+        <v>8</v>
+      </c>
+      <c r="D119">
+        <v>84712</v>
+      </c>
+      <c r="E119">
+        <v>103074</v>
+      </c>
+      <c r="F119">
+        <v>499</v>
+      </c>
+      <c r="G119" s="3">
+        <f t="shared" si="1"/>
+        <v>27.230149221217733</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>16</v>
+      </c>
+      <c r="B120">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>512</v>
+      </c>
+      <c r="D120">
+        <v>81218</v>
+      </c>
+      <c r="E120">
+        <v>99728</v>
+      </c>
+      <c r="F120">
+        <v>499</v>
+      </c>
+      <c r="G120" s="3">
+        <f t="shared" si="1"/>
+        <v>27.012425715829281</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>16</v>
+      </c>
+      <c r="B121">
+        <v>256</v>
+      </c>
+      <c r="C121">
+        <v>16</v>
+      </c>
+      <c r="D121">
+        <v>70608</v>
+      </c>
+      <c r="E121">
+        <v>89815</v>
+      </c>
+      <c r="F121">
+        <v>499</v>
+      </c>
+      <c r="G121" s="3">
+        <f t="shared" si="1"/>
+        <v>26.032175769250792</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>8</v>
+      </c>
+      <c r="B122">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>512</v>
+      </c>
+      <c r="D122">
+        <v>99767</v>
+      </c>
+      <c r="E122">
+        <v>119693</v>
+      </c>
+      <c r="F122">
+        <v>499</v>
+      </c>
+      <c r="G122" s="3">
+        <f t="shared" si="1"/>
+        <v>25.092843521027806</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>8</v>
+      </c>
+      <c r="B123">
+        <v>256</v>
+      </c>
+      <c r="C123">
+        <v>32</v>
+      </c>
+      <c r="D123">
+        <v>77448</v>
+      </c>
+      <c r="E123">
+        <v>97994</v>
+      </c>
+      <c r="F123">
+        <v>499</v>
+      </c>
+      <c r="G123" s="3">
+        <f t="shared" si="1"/>
+        <v>24.335637106979462</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>8</v>
+      </c>
+      <c r="B124">
+        <v>256</v>
+      </c>
+      <c r="C124">
+        <v>16</v>
+      </c>
+      <c r="D124">
+        <v>89854</v>
+      </c>
+      <c r="E124">
+        <v>115799</v>
+      </c>
+      <c r="F124">
+        <v>499</v>
+      </c>
+      <c r="G124" s="3">
+        <f t="shared" si="1"/>
+        <v>19.27153594141453</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>32</v>
+      </c>
+      <c r="B125">
+        <v>256</v>
+      </c>
+      <c r="C125">
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>58499</v>
+      </c>
+      <c r="E125">
+        <v>86839</v>
+      </c>
+      <c r="F125">
+        <v>499</v>
+      </c>
+      <c r="G125" s="3">
+        <f t="shared" si="1"/>
+        <v>17.642907551164434</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>16</v>
+      </c>
+      <c r="B126">
+        <v>256</v>
+      </c>
+      <c r="C126">
+        <v>8</v>
+      </c>
+      <c r="D126">
+        <v>86896</v>
+      </c>
+      <c r="E126">
+        <v>115996</v>
+      </c>
+      <c r="F126">
+        <v>499</v>
+      </c>
+      <c r="G126" s="3">
+        <f t="shared" si="1"/>
+        <v>17.182130584192443</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>8</v>
+      </c>
+      <c r="B127">
+        <v>256</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>116055</v>
+      </c>
+      <c r="E127">
+        <v>154078</v>
+      </c>
+      <c r="F127">
+        <v>499</v>
+      </c>
+      <c r="G127" s="3">
+        <f t="shared" si="1"/>
+        <v>13.149935565315729</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E090134-C89E-46EC-BFF7-7CB2815DDFEB}">
+  <dimension ref="A1:G127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>32</v>
+      </c>
+      <c r="B1">
+        <v>64</v>
+      </c>
+      <c r="C1">
+        <v>32</v>
+      </c>
+      <c r="D1">
+        <v>188495</v>
+      </c>
+      <c r="E1">
+        <v>195566</v>
+      </c>
+      <c r="F1">
+        <v>499</v>
+      </c>
+      <c r="G1" s="1">
+        <f t="shared" ref="G1:G64" si="0">(1+F1)/(E1-D1)*1000</f>
+        <v>70.711356243812745</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <v>201046</v>
+      </c>
+      <c r="E2">
+        <v>208920</v>
+      </c>
+      <c r="F2">
+        <v>499</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" si="0"/>
+        <v>63.500127000253997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>256</v>
+      </c>
+      <c r="D3">
+        <v>217691</v>
+      </c>
+      <c r="E3">
+        <v>225742</v>
+      </c>
+      <c r="F3">
+        <v>499</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>62.104086448888339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>128</v>
+      </c>
+      <c r="D4">
+        <v>224098</v>
+      </c>
+      <c r="E4">
+        <v>232204</v>
+      </c>
+      <c r="F4">
+        <v>499</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>61.682704169750799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>217860</v>
+      </c>
+      <c r="E5">
+        <v>225969</v>
+      </c>
+      <c r="F5">
+        <v>499</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>61.659884079417928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>220026</v>
+      </c>
+      <c r="E6">
+        <v>228141</v>
+      </c>
+      <c r="F6">
+        <v>499</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>61.614294516327789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>128</v>
+      </c>
+      <c r="C7">
+        <v>64</v>
+      </c>
+      <c r="D7">
+        <v>192940</v>
+      </c>
+      <c r="E7">
+        <v>201485</v>
+      </c>
+      <c r="F7">
+        <v>499</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>58.513750731421887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>128</v>
+      </c>
+      <c r="C8">
+        <v>128</v>
+      </c>
+      <c r="D8">
+        <v>192857</v>
+      </c>
+      <c r="E8">
+        <v>201459</v>
+      </c>
+      <c r="F8">
+        <v>499</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>58.126017205301089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>229876</v>
+      </c>
+      <c r="E9">
+        <v>238552</v>
+      </c>
+      <c r="F9">
+        <v>499</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>57.630244352236055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>229722</v>
+      </c>
+      <c r="E10">
+        <v>238403</v>
+      </c>
+      <c r="F10">
+        <v>499</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>57.597051030987217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>216329</v>
+      </c>
+      <c r="E11">
+        <v>225112</v>
+      </c>
+      <c r="F11">
+        <v>499</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>56.928156666287144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>128</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>187650</v>
+      </c>
+      <c r="E12">
+        <v>196472</v>
+      </c>
+      <c r="F12">
+        <v>499</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>56.676490591702567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>195578</v>
+      </c>
+      <c r="E13">
+        <v>204530</v>
+      </c>
+      <c r="F13">
+        <v>499</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>55.853440571939231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>225984</v>
+      </c>
+      <c r="E14">
+        <v>235120</v>
+      </c>
+      <c r="F14">
+        <v>499</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>54.728546409807358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>228155</v>
+      </c>
+      <c r="E15">
+        <v>237299</v>
+      </c>
+      <c r="F15">
+        <v>499</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>54.680664916885391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>128</v>
+      </c>
+      <c r="D16">
+        <v>218855</v>
+      </c>
+      <c r="E16">
+        <v>228016</v>
+      </c>
+      <c r="F16">
+        <v>499</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>54.579194411090491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>256</v>
+      </c>
+      <c r="D17">
+        <v>190875</v>
+      </c>
+      <c r="E17">
+        <v>200192</v>
+      </c>
+      <c r="F17">
+        <v>499</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>53.665342921541274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>238569</v>
+      </c>
+      <c r="E18">
+        <v>248000</v>
+      </c>
+      <c r="F18">
+        <v>499</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>53.016647227229356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>128</v>
+      </c>
+      <c r="C19">
+        <v>512</v>
+      </c>
+      <c r="D19">
+        <v>196687</v>
+      </c>
+      <c r="E19">
+        <v>206119</v>
+      </c>
+      <c r="F19">
+        <v>499</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>53.011026293469044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>512</v>
+      </c>
+      <c r="D20">
+        <v>179547</v>
+      </c>
+      <c r="E20">
+        <v>188996</v>
+      </c>
+      <c r="F20">
+        <v>499</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>52.91565244999471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>187498</v>
+      </c>
+      <c r="E21">
+        <v>197193</v>
+      </c>
+      <c r="F21">
+        <v>499</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>51.572975760701389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>225129</v>
+      </c>
+      <c r="E22">
+        <v>234896</v>
+      </c>
+      <c r="F22">
+        <v>499</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>51.192792054878673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>64</v>
+      </c>
+      <c r="D23">
+        <v>208935</v>
+      </c>
+      <c r="E23">
+        <v>218874</v>
+      </c>
+      <c r="F23">
+        <v>499</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>50.306871918704097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>128</v>
+      </c>
+      <c r="D24">
+        <v>228035</v>
+      </c>
+      <c r="E24">
+        <v>237987</v>
+      </c>
+      <c r="F24">
+        <v>499</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>50.241157556270096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <v>256</v>
+      </c>
+      <c r="D25">
+        <v>225757</v>
+      </c>
+      <c r="E25">
+        <v>235771</v>
+      </c>
+      <c r="F25">
+        <v>499</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>49.930097862991808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>211543</v>
+      </c>
+      <c r="E26">
+        <v>221597</v>
+      </c>
+      <c r="F26">
+        <v>499</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>49.731450169086926</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>211010</v>
+      </c>
+      <c r="E27">
+        <v>221071</v>
+      </c>
+      <c r="F27">
+        <v>499</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>49.696849219759471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>311866</v>
+      </c>
+      <c r="E28">
+        <v>322021</v>
+      </c>
+      <c r="F28">
+        <v>499</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>49.236829148202858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>128</v>
+      </c>
+      <c r="D29">
+        <v>232220</v>
+      </c>
+      <c r="E29">
+        <v>242497</v>
+      </c>
+      <c r="F29">
+        <v>499</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>48.652330446628397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>256</v>
+      </c>
+      <c r="D30">
+        <v>219060</v>
+      </c>
+      <c r="E30">
+        <v>229491</v>
+      </c>
+      <c r="F30">
+        <v>499</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>47.934042757166139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>238419</v>
+      </c>
+      <c r="E31">
+        <v>248884</v>
+      </c>
+      <c r="F31">
+        <v>499</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>47.778308647873864</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>210386</v>
+      </c>
+      <c r="E32">
+        <v>220937</v>
+      </c>
+      <c r="F32">
+        <v>499</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>47.388873092597855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>200892</v>
+      </c>
+      <c r="E33">
+        <v>211523</v>
+      </c>
+      <c r="F33">
+        <v>499</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="0"/>
+        <v>47.032264133195369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>200210</v>
+      </c>
+      <c r="E34">
+        <v>210990</v>
+      </c>
+      <c r="F34">
+        <v>499</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="0"/>
+        <v>46.382189239332092</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>64</v>
+      </c>
+      <c r="D35">
+        <v>223827</v>
+      </c>
+      <c r="E35">
+        <v>234756</v>
+      </c>
+      <c r="F35">
+        <v>499</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="0"/>
+        <v>45.74983987556044</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>64</v>
+      </c>
+      <c r="C36">
+        <v>512</v>
+      </c>
+      <c r="D36">
+        <v>189014</v>
+      </c>
+      <c r="E36">
+        <v>200168</v>
+      </c>
+      <c r="F36">
+        <v>499</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="0"/>
+        <v>44.826967903890981</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>199148</v>
+      </c>
+      <c r="E37">
+        <v>210366</v>
+      </c>
+      <c r="F37">
+        <v>499</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="0"/>
+        <v>44.571224817257978</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>256</v>
+      </c>
+      <c r="D38">
+        <v>229511</v>
+      </c>
+      <c r="E38">
+        <v>240830</v>
+      </c>
+      <c r="F38">
+        <v>499</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="0"/>
+        <v>44.173513561268663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>128</v>
+      </c>
+      <c r="D39">
+        <v>213771</v>
+      </c>
+      <c r="E39">
+        <v>225131</v>
+      </c>
+      <c r="F39">
+        <v>499</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="0"/>
+        <v>44.014084507042249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>128</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>197142</v>
+      </c>
+      <c r="E40">
+        <v>208878</v>
+      </c>
+      <c r="F40">
+        <v>499</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="0"/>
+        <v>42.603953646898432</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>64</v>
+      </c>
+      <c r="D41">
+        <v>211958</v>
+      </c>
+      <c r="E41">
+        <v>223805</v>
+      </c>
+      <c r="F41">
+        <v>499</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="0"/>
+        <v>42.204777580822146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>128</v>
+      </c>
+      <c r="D42">
+        <v>201747</v>
+      </c>
+      <c r="E42">
+        <v>213748</v>
+      </c>
+      <c r="F42">
+        <v>499</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="0"/>
+        <v>41.66319473377218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>197212</v>
+      </c>
+      <c r="E43">
+        <v>209756</v>
+      </c>
+      <c r="F43">
+        <v>499</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="0"/>
+        <v>39.859693877551017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>128</v>
+      </c>
+      <c r="C44">
+        <v>32</v>
+      </c>
+      <c r="D44">
+        <v>196488</v>
+      </c>
+      <c r="E44">
+        <v>209202</v>
+      </c>
+      <c r="F44">
+        <v>499</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="0"/>
+        <v>39.326726443290859</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>128</v>
+      </c>
+      <c r="C45">
+        <v>64</v>
+      </c>
+      <c r="D45">
+        <v>201503</v>
+      </c>
+      <c r="E45">
+        <v>214422</v>
+      </c>
+      <c r="F45">
+        <v>499</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="0"/>
+        <v>38.702685966406065</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>128</v>
+      </c>
+      <c r="C46">
+        <v>128</v>
+      </c>
+      <c r="D46">
+        <v>201476</v>
+      </c>
+      <c r="E46">
+        <v>214485</v>
+      </c>
+      <c r="F46">
+        <v>499</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="0"/>
+        <v>38.434929664078716</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>32</v>
+      </c>
+      <c r="D47">
+        <v>221091</v>
+      </c>
+      <c r="E47">
+        <v>234445</v>
+      </c>
+      <c r="F47">
+        <v>499</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="0"/>
+        <v>37.441964954320802</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <v>221617</v>
+      </c>
+      <c r="E48">
+        <v>235013</v>
+      </c>
+      <c r="F48">
+        <v>499</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="0"/>
+        <v>37.324574499850705</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>256</v>
+      </c>
+      <c r="D49">
+        <v>211984</v>
+      </c>
+      <c r="E49">
+        <v>225680</v>
+      </c>
+      <c r="F49">
+        <v>499</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="0"/>
+        <v>36.507009345794394</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>32</v>
+      </c>
+      <c r="B50">
+        <v>32</v>
+      </c>
+      <c r="C50">
+        <v>512</v>
+      </c>
+      <c r="D50">
+        <v>226727</v>
+      </c>
+      <c r="E50">
+        <v>240501</v>
+      </c>
+      <c r="F50">
+        <v>499</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="0"/>
+        <v>36.300275882096699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>64</v>
+      </c>
+      <c r="C51">
+        <v>32</v>
+      </c>
+      <c r="D51">
+        <v>204548</v>
+      </c>
+      <c r="E51">
+        <v>218484</v>
+      </c>
+      <c r="F51">
+        <v>499</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="0"/>
+        <v>35.878300803673937</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>220958</v>
+      </c>
+      <c r="E52">
+        <v>235126</v>
+      </c>
+      <c r="F52">
+        <v>499</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="0"/>
+        <v>35.290796160361374</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>32</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>256</v>
+      </c>
+      <c r="D53">
+        <v>197770</v>
+      </c>
+      <c r="E53">
+        <v>211957</v>
+      </c>
+      <c r="F53">
+        <v>499</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="0"/>
+        <v>35.243532811729047</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>32</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>248907</v>
+      </c>
+      <c r="E54">
+        <v>263138</v>
+      </c>
+      <c r="F54">
+        <v>499</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="0"/>
+        <v>35.134565385426185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>32</v>
+      </c>
+      <c r="C55">
+        <v>32</v>
+      </c>
+      <c r="D55">
+        <v>237317</v>
+      </c>
+      <c r="E55">
+        <v>251622</v>
+      </c>
+      <c r="F55">
+        <v>499</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="0"/>
+        <v>34.952813701502976</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>16</v>
+      </c>
+      <c r="B56">
+        <v>128</v>
+      </c>
+      <c r="C56">
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <v>208901</v>
+      </c>
+      <c r="E56">
+        <v>223224</v>
+      </c>
+      <c r="F56">
+        <v>499</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="0"/>
+        <v>34.908887802834606</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>32</v>
+      </c>
+      <c r="C57">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <v>235137</v>
+      </c>
+      <c r="E57">
+        <v>249552</v>
+      </c>
+      <c r="F57">
+        <v>499</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="0"/>
+        <v>34.686090877558101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>128</v>
+      </c>
+      <c r="D58">
+        <v>225154</v>
+      </c>
+      <c r="E58">
+        <v>239592</v>
+      </c>
+      <c r="F58">
+        <v>499</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="0"/>
+        <v>34.630835295747332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>16</v>
+      </c>
+      <c r="B59">
+        <v>128</v>
+      </c>
+      <c r="C59">
+        <v>256</v>
+      </c>
+      <c r="D59">
+        <v>200210</v>
+      </c>
+      <c r="E59">
+        <v>214651</v>
+      </c>
+      <c r="F59">
+        <v>499</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="0"/>
+        <v>34.623641022089885</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>16</v>
+      </c>
+      <c r="B60">
+        <v>128</v>
+      </c>
+      <c r="C60">
+        <v>512</v>
+      </c>
+      <c r="D60">
+        <v>206137</v>
+      </c>
+      <c r="E60">
+        <v>220613</v>
+      </c>
+      <c r="F60">
+        <v>499</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="0"/>
+        <v>34.539928156949429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>64</v>
+      </c>
+      <c r="D61">
+        <v>234777</v>
+      </c>
+      <c r="E61">
+        <v>249344</v>
+      </c>
+      <c r="F61">
+        <v>499</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="0"/>
+        <v>34.324157341937259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>32</v>
+      </c>
+      <c r="C62">
+        <v>64</v>
+      </c>
+      <c r="D62">
+        <v>248018</v>
+      </c>
+      <c r="E62">
+        <v>262936</v>
+      </c>
+      <c r="F62">
+        <v>499</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="0"/>
+        <v>33.516557179246547</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>32</v>
+      </c>
+      <c r="B63">
+        <v>256</v>
+      </c>
+      <c r="C63">
+        <v>128</v>
+      </c>
+      <c r="D63">
+        <v>194672</v>
+      </c>
+      <c r="E63">
+        <v>209929</v>
+      </c>
+      <c r="F63">
+        <v>499</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="0"/>
+        <v>32.771842432981586</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>32</v>
+      </c>
+      <c r="B64">
+        <v>128</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>194755</v>
+      </c>
+      <c r="E64">
+        <v>210027</v>
+      </c>
+      <c r="F64">
+        <v>499</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="0"/>
+        <v>32.73965426925092</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>32</v>
+      </c>
+      <c r="B65">
+        <v>256</v>
+      </c>
+      <c r="C65">
+        <v>256</v>
+      </c>
+      <c r="D65">
+        <v>205237</v>
+      </c>
+      <c r="E65">
+        <v>220665</v>
+      </c>
+      <c r="F65">
+        <v>499</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" ref="G65:G127" si="1">(1+F65)/(E65-D65)*1000</f>
+        <v>32.408607726212082</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>32</v>
+      </c>
+      <c r="B66">
+        <v>256</v>
+      </c>
+      <c r="C66">
+        <v>64</v>
+      </c>
+      <c r="D66">
+        <v>213129</v>
+      </c>
+      <c r="E66">
+        <v>228593</v>
+      </c>
+      <c r="F66">
+        <v>499</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="1"/>
+        <v>32.333160889808589</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>32</v>
+      </c>
+      <c r="C67">
+        <v>128</v>
+      </c>
+      <c r="D67">
+        <v>238007</v>
+      </c>
+      <c r="E67">
+        <v>253616</v>
+      </c>
+      <c r="F67">
+        <v>499</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="1"/>
+        <v>32.032801588826956</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>16</v>
+      </c>
+      <c r="B68">
+        <v>32</v>
+      </c>
+      <c r="C68">
+        <v>512</v>
+      </c>
+      <c r="D68">
+        <v>240529</v>
+      </c>
+      <c r="E68">
+        <v>256230</v>
+      </c>
+      <c r="F68">
+        <v>499</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="1"/>
+        <v>31.845105407298902</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>32</v>
+      </c>
+      <c r="B69">
+        <v>256</v>
+      </c>
+      <c r="C69">
+        <v>512</v>
+      </c>
+      <c r="D69">
+        <v>217223</v>
+      </c>
+      <c r="E69">
+        <v>232940</v>
+      </c>
+      <c r="F69">
+        <v>499</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="1"/>
+        <v>31.812686899535535</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>64</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>209781</v>
+      </c>
+      <c r="E70">
+        <v>225561</v>
+      </c>
+      <c r="F70">
+        <v>499</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="1"/>
+        <v>31.685678073510775</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>64</v>
+      </c>
+      <c r="C71">
+        <v>256</v>
+      </c>
+      <c r="D71">
+        <v>235791</v>
+      </c>
+      <c r="E71">
+        <v>251750</v>
+      </c>
+      <c r="F71">
+        <v>499</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="1"/>
+        <v>31.3302838523717</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>16</v>
+      </c>
+      <c r="C72">
+        <v>256</v>
+      </c>
+      <c r="D72">
+        <v>225708</v>
+      </c>
+      <c r="E72">
+        <v>241956</v>
+      </c>
+      <c r="F72">
+        <v>499</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="1"/>
+        <v>30.773018217626785</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>64</v>
+      </c>
+      <c r="C73">
+        <v>16</v>
+      </c>
+      <c r="D73">
+        <v>234914</v>
+      </c>
+      <c r="E73">
+        <v>251537</v>
+      </c>
+      <c r="F73">
+        <v>499</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="1"/>
+        <v>30.078806472959155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>64</v>
+      </c>
+      <c r="C74">
+        <v>64</v>
+      </c>
+      <c r="D74">
+        <v>218894</v>
+      </c>
+      <c r="E74">
+        <v>235543</v>
+      </c>
+      <c r="F74">
+        <v>499</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="1"/>
+        <v>30.031833743768395</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>32</v>
+      </c>
+      <c r="B75">
+        <v>256</v>
+      </c>
+      <c r="C75">
+        <v>32</v>
+      </c>
+      <c r="D75">
+        <v>209104</v>
+      </c>
+      <c r="E75">
+        <v>226361</v>
+      </c>
+      <c r="F75">
+        <v>499</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="1"/>
+        <v>28.973749782696878</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>32</v>
+      </c>
+      <c r="C76">
+        <v>256</v>
+      </c>
+      <c r="D76">
+        <v>240853</v>
+      </c>
+      <c r="E76">
+        <v>258149</v>
+      </c>
+      <c r="F76">
+        <v>499</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="1"/>
+        <v>28.908418131359852</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>64</v>
+      </c>
+      <c r="C77">
+        <v>512</v>
+      </c>
+      <c r="D77">
+        <v>200190</v>
+      </c>
+      <c r="E77">
+        <v>218164</v>
+      </c>
+      <c r="F77">
+        <v>499</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="1"/>
+        <v>27.817959274507622</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>64</v>
+      </c>
+      <c r="C78">
+        <v>128</v>
+      </c>
+      <c r="D78">
+        <v>242518</v>
+      </c>
+      <c r="E78">
+        <v>260632</v>
+      </c>
+      <c r="F78">
+        <v>499</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="1"/>
+        <v>27.602959037208787</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>16</v>
+      </c>
+      <c r="B79">
+        <v>16</v>
+      </c>
+      <c r="C79">
+        <v>512</v>
+      </c>
+      <c r="D79">
+        <v>221182</v>
+      </c>
+      <c r="E79">
+        <v>240491</v>
+      </c>
+      <c r="F79">
+        <v>499</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="1"/>
+        <v>25.894660521000571</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>32</v>
+      </c>
+      <c r="B80">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>512</v>
+      </c>
+      <c r="D80">
+        <v>201499</v>
+      </c>
+      <c r="E80">
+        <v>221144</v>
+      </c>
+      <c r="F80">
+        <v>499</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="1"/>
+        <v>25.451768897938408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>16</v>
+      </c>
+      <c r="B81">
+        <v>128</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>210056</v>
+      </c>
+      <c r="E81">
+        <v>230607</v>
+      </c>
+      <c r="F81">
+        <v>499</v>
+      </c>
+      <c r="G81" s="3">
+        <f t="shared" si="1"/>
+        <v>24.32971631550776</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>32</v>
+      </c>
+      <c r="C82">
+        <v>512</v>
+      </c>
+      <c r="D82">
+        <v>256264</v>
+      </c>
+      <c r="E82">
+        <v>277444</v>
+      </c>
+      <c r="F82">
+        <v>499</v>
+      </c>
+      <c r="G82" s="3">
+        <f t="shared" si="1"/>
+        <v>23.607176581680832</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>32</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+      <c r="D83">
+        <v>193401</v>
+      </c>
+      <c r="E83">
+        <v>214827</v>
+      </c>
+      <c r="F83">
+        <v>499</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" si="1"/>
+        <v>23.336133669373659</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>128</v>
+      </c>
+      <c r="C84">
+        <v>32</v>
+      </c>
+      <c r="D84">
+        <v>209227</v>
+      </c>
+      <c r="E84">
+        <v>230676</v>
+      </c>
+      <c r="F84">
+        <v>499</v>
+      </c>
+      <c r="G84" s="3">
+        <f t="shared" si="1"/>
+        <v>23.311110075061777</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>128</v>
+      </c>
+      <c r="C85">
+        <v>64</v>
+      </c>
+      <c r="D85">
+        <v>214447</v>
+      </c>
+      <c r="E85">
+        <v>236196</v>
+      </c>
+      <c r="F85">
+        <v>499</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" si="1"/>
+        <v>22.989562738516714</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>32</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>32</v>
+      </c>
+      <c r="D86">
+        <v>247017</v>
+      </c>
+      <c r="E86">
+        <v>268830</v>
+      </c>
+      <c r="F86">
+        <v>499</v>
+      </c>
+      <c r="G86" s="3">
+        <f t="shared" si="1"/>
+        <v>22.922110667950307</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>32</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>64</v>
+      </c>
+      <c r="D87">
+        <v>214331</v>
+      </c>
+      <c r="E87">
+        <v>236586</v>
+      </c>
+      <c r="F87">
+        <v>499</v>
+      </c>
+      <c r="G87" s="3">
+        <f t="shared" si="1"/>
+        <v>22.466861379465289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>128</v>
+      </c>
+      <c r="C88">
+        <v>128</v>
+      </c>
+      <c r="D88">
+        <v>214511</v>
+      </c>
+      <c r="E88">
+        <v>236941</v>
+      </c>
+      <c r="F88">
+        <v>499</v>
+      </c>
+      <c r="G88" s="3">
+        <f t="shared" si="1"/>
+        <v>22.291573785109229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>16</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>214869</v>
+      </c>
+      <c r="E89">
+        <v>237917</v>
+      </c>
+      <c r="F89">
+        <v>499</v>
+      </c>
+      <c r="G89" s="3">
+        <f t="shared" si="1"/>
+        <v>21.69385629989587</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>16</v>
+      </c>
+      <c r="C90">
+        <v>512</v>
+      </c>
+      <c r="D90">
+        <v>240532</v>
+      </c>
+      <c r="E90">
+        <v>263853</v>
+      </c>
+      <c r="F90">
+        <v>499</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" si="1"/>
+        <v>21.43990394923031</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>128</v>
+      </c>
+      <c r="C91">
+        <v>16</v>
+      </c>
+      <c r="D91">
+        <v>223253</v>
+      </c>
+      <c r="E91">
+        <v>246647</v>
+      </c>
+      <c r="F91">
+        <v>499</v>
+      </c>
+      <c r="G91" s="3">
+        <f t="shared" si="1"/>
+        <v>21.373001624348124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>16</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>64</v>
+      </c>
+      <c r="D92">
+        <v>236629</v>
+      </c>
+      <c r="E92">
+        <v>260322</v>
+      </c>
+      <c r="F92">
+        <v>499</v>
+      </c>
+      <c r="G92" s="3">
+        <f t="shared" si="1"/>
+        <v>21.10327944962647</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>237967</v>
+      </c>
+      <c r="E93">
+        <v>261836</v>
+      </c>
+      <c r="F93">
+        <v>499</v>
+      </c>
+      <c r="G93" s="3">
+        <f t="shared" si="1"/>
+        <v>20.947672713561523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>16</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>32</v>
+      </c>
+      <c r="D94">
+        <v>268873</v>
+      </c>
+      <c r="E94">
+        <v>292754</v>
+      </c>
+      <c r="F94">
+        <v>499</v>
+      </c>
+      <c r="G94" s="3">
+        <f t="shared" si="1"/>
+        <v>20.93714668564968</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>32</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>16</v>
+      </c>
+      <c r="D95">
+        <v>240629</v>
+      </c>
+      <c r="E95">
+        <v>264649</v>
+      </c>
+      <c r="F95">
+        <v>499</v>
+      </c>
+      <c r="G95" s="3">
+        <f t="shared" si="1"/>
+        <v>20.815986677768528</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>32</v>
+      </c>
+      <c r="B96">
+        <v>256</v>
+      </c>
+      <c r="C96">
+        <v>16</v>
+      </c>
+      <c r="D96">
+        <v>202519</v>
+      </c>
+      <c r="E96">
+        <v>226776</v>
+      </c>
+      <c r="F96">
+        <v>499</v>
+      </c>
+      <c r="G96" s="3">
+        <f t="shared" si="1"/>
+        <v>20.612606670239519</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>32</v>
+      </c>
+      <c r="D97">
+        <v>292804</v>
+      </c>
+      <c r="E97">
+        <v>317617</v>
+      </c>
+      <c r="F97">
+        <v>499</v>
+      </c>
+      <c r="G97" s="3">
+        <f t="shared" si="1"/>
+        <v>20.150727441260628</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>128</v>
+      </c>
+      <c r="C98">
+        <v>256</v>
+      </c>
+      <c r="D98">
+        <v>214680</v>
+      </c>
+      <c r="E98">
+        <v>239576</v>
+      </c>
+      <c r="F98">
+        <v>499</v>
+      </c>
+      <c r="G98" s="3">
+        <f t="shared" si="1"/>
+        <v>20.083547557840618</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>128</v>
+      </c>
+      <c r="C99">
+        <v>512</v>
+      </c>
+      <c r="D99">
+        <v>220641</v>
+      </c>
+      <c r="E99">
+        <v>245547</v>
+      </c>
+      <c r="F99">
+        <v>499</v>
+      </c>
+      <c r="G99" s="3">
+        <f t="shared" si="1"/>
+        <v>20.075483819160045</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>16</v>
+      </c>
+      <c r="B100">
+        <v>256</v>
+      </c>
+      <c r="C100">
+        <v>128</v>
+      </c>
+      <c r="D100">
+        <v>209958</v>
+      </c>
+      <c r="E100">
+        <v>235680</v>
+      </c>
+      <c r="F100">
+        <v>499</v>
+      </c>
+      <c r="G100" s="3">
+        <f t="shared" si="1"/>
+        <v>19.438612860586272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>64</v>
+      </c>
+      <c r="D101">
+        <v>260374</v>
+      </c>
+      <c r="E101">
+        <v>286288</v>
+      </c>
+      <c r="F101">
+        <v>499</v>
+      </c>
+      <c r="G101" s="3">
+        <f t="shared" si="1"/>
+        <v>19.294589797020915</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>32</v>
+      </c>
+      <c r="B102">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>128</v>
+      </c>
+      <c r="D102">
+        <v>222768</v>
+      </c>
+      <c r="E102">
+        <v>249097</v>
+      </c>
+      <c r="F102">
+        <v>499</v>
+      </c>
+      <c r="G102" s="3">
+        <f t="shared" si="1"/>
+        <v>18.990466785673593</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>16</v>
+      </c>
+      <c r="B103">
+        <v>256</v>
+      </c>
+      <c r="C103">
+        <v>256</v>
+      </c>
+      <c r="D103">
+        <v>220694</v>
+      </c>
+      <c r="E103">
+        <v>247685</v>
+      </c>
+      <c r="F103">
+        <v>499</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" si="1"/>
+        <v>18.524693416323959</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>16</v>
+      </c>
+      <c r="B104">
+        <v>256</v>
+      </c>
+      <c r="C104">
+        <v>64</v>
+      </c>
+      <c r="D104">
+        <v>228623</v>
+      </c>
+      <c r="E104">
+        <v>256332</v>
+      </c>
+      <c r="F104">
+        <v>499</v>
+      </c>
+      <c r="G104" s="3">
+        <f t="shared" si="1"/>
+        <v>18.044678624273701</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>128</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>230648</v>
+      </c>
+      <c r="E105">
+        <v>258380</v>
+      </c>
+      <c r="F105">
+        <v>499</v>
+      </c>
+      <c r="G105" s="3">
+        <f t="shared" si="1"/>
+        <v>18.029712966969566</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>16</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>16</v>
+      </c>
+      <c r="D106">
+        <v>264705</v>
+      </c>
+      <c r="E106">
+        <v>292523</v>
+      </c>
+      <c r="F106">
+        <v>499</v>
+      </c>
+      <c r="G106" s="3">
+        <f t="shared" si="1"/>
+        <v>17.973973686102521</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>16</v>
+      </c>
+      <c r="B107">
+        <v>256</v>
+      </c>
+      <c r="C107">
+        <v>512</v>
+      </c>
+      <c r="D107">
+        <v>232970</v>
+      </c>
+      <c r="E107">
+        <v>261028</v>
+      </c>
+      <c r="F107">
+        <v>499</v>
+      </c>
+      <c r="G107" s="3">
+        <f t="shared" si="1"/>
+        <v>17.820229524556275</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>16</v>
+      </c>
+      <c r="D108">
+        <v>292580</v>
+      </c>
+      <c r="E108">
+        <v>320874</v>
+      </c>
+      <c r="F108">
+        <v>499</v>
+      </c>
+      <c r="G108" s="3">
+        <f t="shared" si="1"/>
+        <v>17.671591150067155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>16</v>
+      </c>
+      <c r="B109">
+        <v>256</v>
+      </c>
+      <c r="C109">
+        <v>32</v>
+      </c>
+      <c r="D109">
+        <v>226394</v>
+      </c>
+      <c r="E109">
+        <v>255605</v>
+      </c>
+      <c r="F109">
+        <v>499</v>
+      </c>
+      <c r="G109" s="3">
+        <f t="shared" si="1"/>
+        <v>17.116839546746089</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>16</v>
+      </c>
+      <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>128</v>
+      </c>
+      <c r="D110">
+        <v>249154</v>
+      </c>
+      <c r="E110">
+        <v>279762</v>
+      </c>
+      <c r="F110">
+        <v>499</v>
+      </c>
+      <c r="G110" s="3">
+        <f t="shared" si="1"/>
+        <v>16.335598536330373</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>128</v>
+      </c>
+      <c r="D111">
+        <v>279829</v>
+      </c>
+      <c r="E111">
+        <v>312259</v>
+      </c>
+      <c r="F111">
+        <v>499</v>
+      </c>
+      <c r="G111" s="3">
+        <f t="shared" si="1"/>
+        <v>15.417823003391922</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>16</v>
+      </c>
+      <c r="B112">
+        <v>256</v>
+      </c>
+      <c r="C112">
+        <v>16</v>
+      </c>
+      <c r="D112">
+        <v>226825</v>
+      </c>
+      <c r="E112">
+        <v>260075</v>
+      </c>
+      <c r="F112">
+        <v>499</v>
+      </c>
+      <c r="G112" s="3">
+        <f t="shared" si="1"/>
+        <v>15.037593984962406</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>32</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>256</v>
+      </c>
+      <c r="D113">
+        <v>248830</v>
+      </c>
+      <c r="E113">
+        <v>282957</v>
+      </c>
+      <c r="F113">
+        <v>499</v>
+      </c>
+      <c r="G113" s="3">
+        <f t="shared" si="1"/>
+        <v>14.651155976206523</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>32</v>
+      </c>
+      <c r="B114">
+        <v>256</v>
+      </c>
+      <c r="C114">
+        <v>8</v>
+      </c>
+      <c r="D114">
+        <v>213403</v>
+      </c>
+      <c r="E114">
+        <v>248063</v>
+      </c>
+      <c r="F114">
+        <v>499</v>
+      </c>
+      <c r="G114" s="3">
+        <f t="shared" si="1"/>
+        <v>14.425851125216388</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>16</v>
+      </c>
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>256</v>
+      </c>
+      <c r="D115">
+        <v>283041</v>
+      </c>
+      <c r="E115">
+        <v>324366</v>
+      </c>
+      <c r="F115">
+        <v>499</v>
+      </c>
+      <c r="G115" s="3">
+        <f t="shared" si="1"/>
+        <v>12.099213551119178</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>8</v>
+      </c>
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>256</v>
+      </c>
+      <c r="D116">
+        <v>324447</v>
+      </c>
+      <c r="E116">
+        <v>367919</v>
+      </c>
+      <c r="F116">
+        <v>499</v>
+      </c>
+      <c r="G116" s="3">
+        <f t="shared" si="1"/>
+        <v>11.501656238498343</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>32</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>512</v>
+      </c>
+      <c r="D117">
+        <v>209415</v>
+      </c>
+      <c r="E117">
+        <v>253587</v>
+      </c>
+      <c r="F117">
+        <v>499</v>
+      </c>
+      <c r="G117" s="3">
+        <f t="shared" si="1"/>
+        <v>11.319387847505206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>16</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <v>512</v>
+      </c>
+      <c r="D118">
+        <v>253684</v>
+      </c>
+      <c r="E118">
+        <v>303120</v>
+      </c>
+      <c r="F118">
+        <v>499</v>
+      </c>
+      <c r="G118" s="3">
+        <f t="shared" si="1"/>
+        <v>10.114086900234646</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>8</v>
+      </c>
+      <c r="B119">
+        <v>256</v>
+      </c>
+      <c r="C119">
+        <v>128</v>
+      </c>
+      <c r="D119">
+        <v>235735</v>
+      </c>
+      <c r="E119">
+        <v>285606</v>
+      </c>
+      <c r="F119">
+        <v>499</v>
+      </c>
+      <c r="G119" s="3">
+        <f t="shared" si="1"/>
+        <v>10.025866736179342</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>8</v>
+      </c>
+      <c r="B120">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>512</v>
+      </c>
+      <c r="D120">
+        <v>303223</v>
+      </c>
+      <c r="E120">
+        <v>353364</v>
+      </c>
+      <c r="F120">
+        <v>499</v>
+      </c>
+      <c r="G120" s="3">
+        <f t="shared" si="1"/>
+        <v>9.9718793003729473</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>16</v>
+      </c>
+      <c r="B121">
+        <v>256</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="D121">
+        <v>248135</v>
+      </c>
+      <c r="E121">
+        <v>299206</v>
+      </c>
+      <c r="F121">
+        <v>499</v>
+      </c>
+      <c r="G121" s="3">
+        <f t="shared" si="1"/>
+        <v>9.790291946505846</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>8</v>
+      </c>
+      <c r="B122">
+        <v>256</v>
+      </c>
+      <c r="C122">
+        <v>256</v>
+      </c>
+      <c r="D122">
+        <v>247740</v>
+      </c>
+      <c r="E122">
+        <v>300627</v>
+      </c>
+      <c r="F122">
+        <v>499</v>
+      </c>
+      <c r="G122" s="3">
+        <f t="shared" si="1"/>
+        <v>9.4541191597178891</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>8</v>
+      </c>
+      <c r="B123">
+        <v>256</v>
+      </c>
+      <c r="C123">
+        <v>512</v>
+      </c>
+      <c r="D123">
+        <v>261087</v>
+      </c>
+      <c r="E123">
+        <v>314017</v>
+      </c>
+      <c r="F123">
+        <v>499</v>
+      </c>
+      <c r="G123" s="3">
+        <f t="shared" si="1"/>
+        <v>9.4464386926128849</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>8</v>
+      </c>
+      <c r="B124">
+        <v>256</v>
+      </c>
+      <c r="C124">
+        <v>32</v>
+      </c>
+      <c r="D124">
+        <v>255668</v>
+      </c>
+      <c r="E124">
+        <v>309536</v>
+      </c>
+      <c r="F124">
+        <v>499</v>
+      </c>
+      <c r="G124" s="3">
+        <f t="shared" si="1"/>
+        <v>9.281948466622115</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>8</v>
+      </c>
+      <c r="B125">
+        <v>256</v>
+      </c>
+      <c r="C125">
+        <v>64</v>
+      </c>
+      <c r="D125">
+        <v>256392</v>
+      </c>
+      <c r="E125">
+        <v>310393</v>
+      </c>
+      <c r="F125">
+        <v>499</v>
+      </c>
+      <c r="G125" s="3">
+        <f t="shared" si="1"/>
+        <v>9.2590877946704691</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>8</v>
+      </c>
+      <c r="B126">
+        <v>256</v>
+      </c>
+      <c r="C126">
+        <v>16</v>
+      </c>
+      <c r="D126">
+        <v>260144</v>
+      </c>
+      <c r="E126">
+        <v>315968</v>
+      </c>
+      <c r="F126">
+        <v>499</v>
+      </c>
+      <c r="G126" s="3">
+        <f t="shared" si="1"/>
+        <v>8.9567211235310982</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>8</v>
+      </c>
+      <c r="B127">
+        <v>256</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>299307</v>
+      </c>
+      <c r="E127">
+        <v>366162</v>
+      </c>
+      <c r="F127">
+        <v>499</v>
+      </c>
+      <c r="G127" s="3">
+        <f t="shared" si="1"/>
+        <v>7.4788721860743399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -3453,7 +10028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCCB3DE-973E-4F2A-AD9E-7755B0B4B781}">
   <dimension ref="A1:G127"/>
   <sheetViews>
@@ -5787,7 +12362,7 @@
         <v>499</v>
       </c>
       <c r="G97" s="3">
-        <f t="shared" ref="G97:G128" si="3">(F97+1)/(E97-D97)*1000</f>
+        <f t="shared" ref="G97:G127" si="3">(F97+1)/(E97-D97)*1000</f>
         <v>47.778308647873864</v>
       </c>
     </row>

--- a/data/lucy/Lucy.xlsx
+++ b/data/lucy/Lucy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maacr\Programming\DEI\src\data\lucy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43BD8EB-843B-47CB-BDA7-59066A302D4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84C26F0-0197-4A24-9AB0-EE8E4F5AB80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="90" windowWidth="14265" windowHeight="15420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="150" windowWidth="28500" windowHeight="15300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vert" sheetId="3" r:id="rId1"/>
@@ -36,13 +36,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,15 +173,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,12 +354,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -532,13 +515,12 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -863,7 +845,7 @@
   <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +869,7 @@
       <c r="F1">
         <v>2499</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="2">
         <f>(1+F1)/(E1-D1)*1000</f>
         <v>163.52694924123495</v>
       </c>
@@ -3991,8 +3973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E090134-C89E-46EC-BFF7-7CB2815DDFEB}">
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7082,7 +7064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -10170,7 +10152,7 @@
   <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10195,7 +10177,7 @@
         <v>2499</v>
       </c>
       <c r="G1" s="2">
-        <f>(1+F1)/(E1-D1)*1000</f>
+        <f t="shared" ref="G1:G32" si="0">(1+F1)/(E1-D1)*1000</f>
         <v>142.42579616020055</v>
       </c>
     </row>
@@ -10219,7 +10201,7 @@
         <v>2499</v>
       </c>
       <c r="G2" s="3">
-        <f>(1+F2)/(E2-D2)*1000</f>
+        <f t="shared" si="0"/>
         <v>128.66700977869274</v>
       </c>
       <c r="H2">
@@ -10249,7 +10231,7 @@
         <v>2499</v>
       </c>
       <c r="G3" s="3">
-        <f>(1+F3)/(E3-D3)*1000</f>
+        <f t="shared" si="0"/>
         <v>125.76717979676025</v>
       </c>
       <c r="H3">
@@ -10279,7 +10261,7 @@
         <v>2499</v>
       </c>
       <c r="G4" s="3">
-        <f>(1+F4)/(E4-D4)*1000</f>
+        <f t="shared" si="0"/>
         <v>121.48896880163282</v>
       </c>
       <c r="H4">
@@ -10309,7 +10291,7 @@
         <v>2499</v>
       </c>
       <c r="G5" s="3">
-        <f>(1+F5)/(E5-D5)*1000</f>
+        <f t="shared" si="0"/>
         <v>120.60398475565633</v>
       </c>
       <c r="H5">
@@ -10339,7 +10321,7 @@
         <v>2499</v>
       </c>
       <c r="G6" s="3">
-        <f>(1+F6)/(E6-D6)*1000</f>
+        <f t="shared" si="0"/>
         <v>119.45147880930766</v>
       </c>
       <c r="H6">
@@ -10369,7 +10351,7 @@
         <v>2499</v>
       </c>
       <c r="G7" s="3">
-        <f>(1+F7)/(E7-D7)*1000</f>
+        <f t="shared" si="0"/>
         <v>117.42050631722324</v>
       </c>
       <c r="H7">
@@ -10399,7 +10381,7 @@
         <v>2499</v>
       </c>
       <c r="G8" s="3">
-        <f>(1+F8)/(E8-D8)*1000</f>
+        <f t="shared" si="0"/>
         <v>109.96261271167802</v>
       </c>
     </row>
@@ -10423,7 +10405,7 @@
         <v>2499</v>
       </c>
       <c r="G9" s="3">
-        <f>(1+F9)/(E9-D9)*1000</f>
+        <f t="shared" si="0"/>
         <v>108.62952985139481</v>
       </c>
     </row>
@@ -10447,7 +10429,7 @@
         <v>2499</v>
       </c>
       <c r="G10" s="3">
-        <f>(1+F10)/(E10-D10)*1000</f>
+        <f t="shared" si="0"/>
         <v>107.27772056299348</v>
       </c>
     </row>
@@ -10471,7 +10453,7 @@
         <v>2499</v>
       </c>
       <c r="G11" s="3">
-        <f>(1+F11)/(E11-D11)*1000</f>
+        <f t="shared" si="0"/>
         <v>107.13061364415495</v>
       </c>
     </row>
@@ -10495,7 +10477,7 @@
         <v>2499</v>
       </c>
       <c r="G12" s="3">
-        <f>(1+F12)/(E12-D12)*1000</f>
+        <f t="shared" si="0"/>
         <v>104.43646085721447</v>
       </c>
     </row>
@@ -10519,7 +10501,7 @@
         <v>2499</v>
       </c>
       <c r="G13" s="3">
-        <f>(1+F13)/(E13-D13)*1000</f>
+        <f t="shared" si="0"/>
         <v>100.02000400080016</v>
       </c>
     </row>
@@ -10543,7 +10525,7 @@
         <v>2499</v>
       </c>
       <c r="G14" s="3">
-        <f>(1+F14)/(E14-D14)*1000</f>
+        <f t="shared" si="0"/>
         <v>99.964012955336074</v>
       </c>
     </row>
@@ -10567,7 +10549,7 @@
         <v>2499</v>
       </c>
       <c r="G15" s="3">
-        <f>(1+F15)/(E15-D15)*1000</f>
+        <f t="shared" si="0"/>
         <v>97.889502329770153</v>
       </c>
       <c r="H15">
@@ -10597,7 +10579,7 @@
         <v>2499</v>
       </c>
       <c r="G16" s="3">
-        <f>(1+F16)/(E16-D16)*1000</f>
+        <f t="shared" si="0"/>
         <v>96.127965547737148</v>
       </c>
       <c r="H16">
@@ -10627,7 +10609,7 @@
         <v>2499</v>
       </c>
       <c r="G17" s="3">
-        <f>(1+F17)/(E17-D17)*1000</f>
+        <f t="shared" si="0"/>
         <v>94.761579865059502</v>
       </c>
       <c r="H17">
@@ -10657,7 +10639,7 @@
         <v>2499</v>
       </c>
       <c r="G18" s="3">
-        <f>(1+F18)/(E18-D18)*1000</f>
+        <f t="shared" si="0"/>
         <v>93.154972612438044</v>
       </c>
     </row>
@@ -10681,7 +10663,7 @@
         <v>2499</v>
       </c>
       <c r="G19" s="3">
-        <f>(1+F19)/(E19-D19)*1000</f>
+        <f t="shared" si="0"/>
         <v>92.186290054943029</v>
       </c>
       <c r="H19">
@@ -10711,7 +10693,7 @@
         <v>2499</v>
       </c>
       <c r="G20" s="3">
-        <f>(1+F20)/(E20-D20)*1000</f>
+        <f t="shared" si="0"/>
         <v>90.353825580975098</v>
       </c>
       <c r="H20">
@@ -10741,7 +10723,7 @@
         <v>2499</v>
       </c>
       <c r="G21" s="3">
-        <f>(1+F21)/(E21-D21)*1000</f>
+        <f t="shared" si="0"/>
         <v>88.30801836806782</v>
       </c>
     </row>
@@ -10765,7 +10747,7 @@
         <v>2499</v>
       </c>
       <c r="G22" s="3">
-        <f>(1+F22)/(E22-D22)*1000</f>
+        <f t="shared" si="0"/>
         <v>85.898845519516229</v>
       </c>
     </row>
@@ -10789,7 +10771,7 @@
         <v>2499</v>
       </c>
       <c r="G23" s="3">
-        <f>(1+F23)/(E23-D23)*1000</f>
+        <f t="shared" si="0"/>
         <v>85.557837097878163</v>
       </c>
     </row>
@@ -10813,7 +10795,7 @@
         <v>2499</v>
       </c>
       <c r="G24" s="3">
-        <f>(1+F24)/(E24-D24)*1000</f>
+        <f t="shared" si="0"/>
         <v>84.719915957843369</v>
       </c>
     </row>
@@ -10837,7 +10819,7 @@
         <v>2499</v>
       </c>
       <c r="G25" s="3">
-        <f>(1+F25)/(E25-D25)*1000</f>
+        <f t="shared" si="0"/>
         <v>84.24599831508003</v>
       </c>
     </row>
@@ -10861,7 +10843,7 @@
         <v>2499</v>
       </c>
       <c r="G26" s="3">
-        <f>(1+F26)/(E26-D26)*1000</f>
+        <f t="shared" si="0"/>
         <v>83.696016069635093</v>
       </c>
     </row>
@@ -10885,7 +10867,7 @@
         <v>2499</v>
       </c>
       <c r="G27" s="3">
-        <f>(1+F27)/(E27-D27)*1000</f>
+        <f t="shared" si="0"/>
         <v>82.516420767732768</v>
       </c>
     </row>
@@ -10909,7 +10891,7 @@
         <v>2499</v>
       </c>
       <c r="G28" s="3">
-        <f>(1+F28)/(E28-D28)*1000</f>
+        <f t="shared" si="0"/>
         <v>81.994096425057393</v>
       </c>
     </row>
@@ -10933,7 +10915,7 @@
         <v>2499</v>
       </c>
       <c r="G29" s="3">
-        <f>(1+F29)/(E29-D29)*1000</f>
+        <f t="shared" si="0"/>
         <v>81.321969943399907</v>
       </c>
       <c r="H29">
@@ -10963,7 +10945,7 @@
         <v>2499</v>
       </c>
       <c r="G30" s="3">
-        <f>(1+F30)/(E30-D30)*1000</f>
+        <f t="shared" si="0"/>
         <v>80.647762831059069</v>
       </c>
     </row>
@@ -10987,7 +10969,7 @@
         <v>2499</v>
       </c>
       <c r="G31" s="3">
-        <f>(1+F31)/(E31-D31)*1000</f>
+        <f t="shared" si="0"/>
         <v>80.494558567840812</v>
       </c>
     </row>
@@ -11011,7 +10993,7 @@
         <v>2499</v>
       </c>
       <c r="G32" s="3">
-        <f>(1+F32)/(E32-D32)*1000</f>
+        <f t="shared" si="0"/>
         <v>80.445345432313289</v>
       </c>
     </row>
@@ -11035,7 +11017,7 @@
         <v>2499</v>
       </c>
       <c r="G33" s="3">
-        <f>(1+F33)/(E33-D33)*1000</f>
+        <f t="shared" ref="G33:G64" si="1">(1+F33)/(E33-D33)*1000</f>
         <v>79.214195183776937</v>
       </c>
     </row>
@@ -11059,7 +11041,7 @@
         <v>2499</v>
       </c>
       <c r="G34" s="3">
-        <f>(1+F34)/(E34-D34)*1000</f>
+        <f t="shared" si="1"/>
         <v>77.091492182922693</v>
       </c>
     </row>
@@ -11083,7 +11065,7 @@
         <v>2499</v>
       </c>
       <c r="G35" s="3">
-        <f>(1+F35)/(E35-D35)*1000</f>
+        <f t="shared" si="1"/>
         <v>76.745970836531072</v>
       </c>
     </row>
@@ -11107,7 +11089,7 @@
         <v>2499</v>
       </c>
       <c r="G36" s="3">
-        <f>(1+F36)/(E36-D36)*1000</f>
+        <f t="shared" si="1"/>
         <v>76.576714552638833</v>
       </c>
     </row>
@@ -11131,7 +11113,7 @@
         <v>2499</v>
       </c>
       <c r="G37" s="3">
-        <f>(1+F37)/(E37-D37)*1000</f>
+        <f t="shared" si="1"/>
         <v>73.309483314761607</v>
       </c>
     </row>
@@ -11155,7 +11137,7 @@
         <v>2499</v>
       </c>
       <c r="G38" s="3">
-        <f>(1+F38)/(E38-D38)*1000</f>
+        <f t="shared" si="1"/>
         <v>69.421304009774516</v>
       </c>
     </row>
@@ -11179,7 +11161,7 @@
         <v>2499</v>
       </c>
       <c r="G39" s="3">
-        <f>(1+F39)/(E39-D39)*1000</f>
+        <f t="shared" si="1"/>
         <v>68.969322445376292</v>
       </c>
     </row>
@@ -11203,7 +11185,7 @@
         <v>2499</v>
       </c>
       <c r="G40" s="3">
-        <f>(1+F40)/(E40-D40)*1000</f>
+        <f t="shared" si="1"/>
         <v>68.332148909418891</v>
       </c>
     </row>
@@ -11227,7 +11209,7 @@
         <v>2499</v>
       </c>
       <c r="G41" s="3">
-        <f>(1+F41)/(E41-D41)*1000</f>
+        <f t="shared" si="1"/>
         <v>68.131029596119262</v>
       </c>
     </row>
@@ -11251,7 +11233,7 @@
         <v>2499</v>
       </c>
       <c r="G42" s="3">
-        <f>(1+F42)/(E42-D42)*1000</f>
+        <f t="shared" si="1"/>
         <v>67.940321221838744</v>
       </c>
     </row>
@@ -11275,7 +11257,7 @@
         <v>2499</v>
       </c>
       <c r="G43" s="3">
-        <f>(1+F43)/(E43-D43)*1000</f>
+        <f t="shared" si="1"/>
         <v>67.487312385271579</v>
       </c>
     </row>
@@ -11299,7 +11281,7 @@
         <v>2499</v>
       </c>
       <c r="G44" s="3">
-        <f>(1+F44)/(E44-D44)*1000</f>
+        <f t="shared" si="1"/>
         <v>66.44341678626482</v>
       </c>
     </row>
@@ -11323,7 +11305,7 @@
         <v>2499</v>
       </c>
       <c r="G45" s="3">
-        <f>(1+F45)/(E45-D45)*1000</f>
+        <f t="shared" si="1"/>
         <v>66.044963411090265</v>
       </c>
       <c r="H45">
@@ -11353,7 +11335,7 @@
         <v>2499</v>
       </c>
       <c r="G46" s="3">
-        <f>(1+F46)/(E46-D46)*1000</f>
+        <f t="shared" si="1"/>
         <v>65.234976384938548</v>
       </c>
       <c r="H46">
@@ -11383,7 +11365,7 @@
         <v>2499</v>
       </c>
       <c r="G47" s="3">
-        <f>(1+F47)/(E47-D47)*1000</f>
+        <f t="shared" si="1"/>
         <v>65.234976384938548</v>
       </c>
     </row>
@@ -11407,7 +11389,7 @@
         <v>2499</v>
       </c>
       <c r="G48" s="3">
-        <f>(1+F48)/(E48-D48)*1000</f>
+        <f t="shared" si="1"/>
         <v>62.662923601363552</v>
       </c>
     </row>
@@ -11431,7 +11413,7 @@
         <v>2499</v>
       </c>
       <c r="G49" s="3">
-        <f>(1+F49)/(E49-D49)*1000</f>
+        <f t="shared" si="1"/>
         <v>62.189054726368163</v>
       </c>
     </row>
@@ -11455,7 +11437,7 @@
         <v>2499</v>
       </c>
       <c r="G50" s="3">
-        <f>(1+F50)/(E50-D50)*1000</f>
+        <f t="shared" si="1"/>
         <v>61.583938908732598</v>
       </c>
     </row>
@@ -11479,7 +11461,7 @@
         <v>2499</v>
       </c>
       <c r="G51" s="3">
-        <f>(1+F51)/(E51-D51)*1000</f>
+        <f t="shared" si="1"/>
         <v>59.962103950303408</v>
       </c>
     </row>
@@ -11503,7 +11485,7 @@
         <v>2499</v>
       </c>
       <c r="G52" s="3">
-        <f>(1+F52)/(E52-D52)*1000</f>
+        <f t="shared" si="1"/>
         <v>59.814336300124417</v>
       </c>
     </row>
@@ -11527,7 +11509,7 @@
         <v>2499</v>
       </c>
       <c r="G53" s="3">
-        <f>(1+F53)/(E53-D53)*1000</f>
+        <f t="shared" si="1"/>
         <v>59.217850628893572</v>
       </c>
     </row>
@@ -11551,7 +11533,7 @@
         <v>2499</v>
       </c>
       <c r="G54" s="3">
-        <f>(1+F54)/(E54-D54)*1000</f>
+        <f t="shared" si="1"/>
         <v>58.935854216271011</v>
       </c>
       <c r="H54">
@@ -11581,7 +11563,7 @@
         <v>2499</v>
       </c>
       <c r="G55" s="3">
-        <f>(1+F55)/(E55-D55)*1000</f>
+        <f t="shared" si="1"/>
         <v>58.721285291492457</v>
       </c>
     </row>
@@ -11605,7 +11587,7 @@
         <v>2499</v>
       </c>
       <c r="G56" s="3">
-        <f>(1+F56)/(E56-D56)*1000</f>
+        <f t="shared" si="1"/>
         <v>58.707495773060302</v>
       </c>
     </row>
@@ -11629,7 +11611,7 @@
         <v>2499</v>
       </c>
       <c r="G57" s="3">
-        <f>(1+F57)/(E57-D57)*1000</f>
+        <f t="shared" si="1"/>
         <v>58.461754320323649</v>
       </c>
     </row>
@@ -11653,7 +11635,7 @@
         <v>2499</v>
       </c>
       <c r="G58" s="3">
-        <f>(1+F58)/(E58-D58)*1000</f>
+        <f t="shared" si="1"/>
         <v>58.351227709831015</v>
       </c>
     </row>
@@ -11677,7 +11659,7 @@
         <v>2499</v>
       </c>
       <c r="G59" s="3">
-        <f>(1+F59)/(E59-D59)*1000</f>
+        <f t="shared" si="1"/>
         <v>57.688757614916007</v>
       </c>
     </row>
@@ -11701,7 +11683,7 @@
         <v>2499</v>
       </c>
       <c r="G60" s="3">
-        <f>(1+F60)/(E60-D60)*1000</f>
+        <f t="shared" si="1"/>
         <v>57.45805561939784</v>
       </c>
     </row>
@@ -11725,7 +11707,7 @@
         <v>2499</v>
       </c>
       <c r="G61" s="3">
-        <f>(1+F61)/(E61-D61)*1000</f>
+        <f t="shared" si="1"/>
         <v>56.796237817206986</v>
       </c>
     </row>
@@ -11749,7 +11731,7 @@
         <v>2499</v>
       </c>
       <c r="G62" s="3">
-        <f>(1+F62)/(E62-D62)*1000</f>
+        <f t="shared" si="1"/>
         <v>55.804817071809644</v>
       </c>
       <c r="H62">
@@ -11779,7 +11761,7 @@
         <v>2499</v>
       </c>
       <c r="G63" s="3">
-        <f>(1+F63)/(E63-D63)*1000</f>
+        <f t="shared" si="1"/>
         <v>54.849821189582919</v>
       </c>
     </row>
@@ -11803,7 +11785,7 @@
         <v>2499</v>
       </c>
       <c r="G64" s="3">
-        <f>(1+F64)/(E64-D64)*1000</f>
+        <f t="shared" si="1"/>
         <v>54.659145568236475</v>
       </c>
     </row>
@@ -11827,7 +11809,7 @@
         <v>2499</v>
       </c>
       <c r="G65" s="3">
-        <f>(1+F65)/(E65-D65)*1000</f>
+        <f t="shared" ref="G65:G96" si="2">(1+F65)/(E65-D65)*1000</f>
         <v>54.454367240252665</v>
       </c>
       <c r="H65">
@@ -11857,7 +11839,7 @@
         <v>2499</v>
       </c>
       <c r="G66" s="3">
-        <f>(1+F66)/(E66-D66)*1000</f>
+        <f t="shared" si="2"/>
         <v>53.512564750203346</v>
       </c>
     </row>
@@ -11881,7 +11863,7 @@
         <v>2499</v>
       </c>
       <c r="G67" s="3">
-        <f>(1+F67)/(E67-D67)*1000</f>
+        <f t="shared" si="2"/>
         <v>52.711478451547613</v>
       </c>
     </row>
@@ -11905,7 +11887,7 @@
         <v>2499</v>
       </c>
       <c r="G68" s="3">
-        <f>(1+F68)/(E68-D68)*1000</f>
+        <f t="shared" si="2"/>
         <v>51.753405374073616</v>
       </c>
     </row>
@@ -11929,7 +11911,7 @@
         <v>2499</v>
       </c>
       <c r="G69" s="3">
-        <f>(1+F69)/(E69-D69)*1000</f>
+        <f t="shared" si="2"/>
         <v>49.797820847359716</v>
       </c>
     </row>
@@ -11953,7 +11935,7 @@
         <v>2499</v>
       </c>
       <c r="G70" s="3">
-        <f>(1+F70)/(E70-D70)*1000</f>
+        <f t="shared" si="2"/>
         <v>49.303829921508303</v>
       </c>
     </row>
@@ -11977,7 +11959,7 @@
         <v>2499</v>
       </c>
       <c r="G71" s="3">
-        <f>(1+F71)/(E71-D71)*1000</f>
+        <f t="shared" si="2"/>
         <v>49.200976147366767</v>
       </c>
     </row>
@@ -12001,7 +11983,7 @@
         <v>2499</v>
       </c>
       <c r="G72" s="3">
-        <f>(1+F72)/(E72-D72)*1000</f>
+        <f t="shared" si="2"/>
         <v>47.390669724944551</v>
       </c>
     </row>
@@ -12025,7 +12007,7 @@
         <v>2499</v>
       </c>
       <c r="G73" s="3">
-        <f>(1+F73)/(E73-D73)*1000</f>
+        <f t="shared" si="2"/>
         <v>46.97482149567832</v>
       </c>
     </row>
@@ -12049,7 +12031,7 @@
         <v>2499</v>
       </c>
       <c r="G74" s="3">
-        <f>(1+F74)/(E74-D74)*1000</f>
+        <f t="shared" si="2"/>
         <v>46.730718905379646</v>
       </c>
     </row>
@@ -12073,7 +12055,7 @@
         <v>2499</v>
       </c>
       <c r="G75" s="3">
-        <f>(1+F75)/(E75-D75)*1000</f>
+        <f t="shared" si="2"/>
         <v>46.548000297907208</v>
       </c>
       <c r="H75">
@@ -12103,7 +12085,7 @@
         <v>2499</v>
       </c>
       <c r="G76" s="3">
-        <f>(1+F76)/(E76-D76)*1000</f>
+        <f t="shared" si="2"/>
         <v>44.802064479131197</v>
       </c>
     </row>
@@ -12127,7 +12109,7 @@
         <v>2499</v>
       </c>
       <c r="G77" s="3">
-        <f>(1+F77)/(E77-D77)*1000</f>
+        <f t="shared" si="2"/>
         <v>44.243872223697018</v>
       </c>
     </row>
@@ -12151,7 +12133,7 @@
         <v>2499</v>
       </c>
       <c r="G78" s="3">
-        <f>(1+F78)/(E78-D78)*1000</f>
+        <f t="shared" si="2"/>
         <v>44.133742894467396</v>
       </c>
     </row>
@@ -12175,7 +12157,7 @@
         <v>2499</v>
       </c>
       <c r="G79" s="3">
-        <f>(1+F79)/(E79-D79)*1000</f>
+        <f t="shared" si="2"/>
         <v>43.772871325267452</v>
       </c>
     </row>
@@ -12199,7 +12181,7 @@
         <v>2499</v>
       </c>
       <c r="G80" s="3">
-        <f>(1+F80)/(E80-D80)*1000</f>
+        <f t="shared" si="2"/>
         <v>43.769805837141313</v>
       </c>
     </row>
@@ -12223,7 +12205,7 @@
         <v>2499</v>
       </c>
       <c r="G81" s="3">
-        <f>(1+F81)/(E81-D81)*1000</f>
+        <f t="shared" si="2"/>
         <v>43.484310860641479</v>
       </c>
     </row>
@@ -12247,7 +12229,7 @@
         <v>2499</v>
       </c>
       <c r="G82" s="3">
-        <f>(1+F82)/(E82-D82)*1000</f>
+        <f t="shared" si="2"/>
         <v>42.729199425719557</v>
       </c>
     </row>
@@ -12271,7 +12253,7 @@
         <v>2499</v>
       </c>
       <c r="G83" s="3">
-        <f>(1+F83)/(E83-D83)*1000</f>
+        <f t="shared" si="2"/>
         <v>41.63058682475188</v>
       </c>
     </row>
@@ -12295,7 +12277,7 @@
         <v>2499</v>
       </c>
       <c r="G84" s="3">
-        <f>(1+F84)/(E84-D84)*1000</f>
+        <f t="shared" si="2"/>
         <v>39.746891793061785</v>
       </c>
     </row>
@@ -12319,7 +12301,7 @@
         <v>2499</v>
       </c>
       <c r="G85" s="3">
-        <f>(1+F85)/(E85-D85)*1000</f>
+        <f t="shared" si="2"/>
         <v>39.559465788973988</v>
       </c>
     </row>
@@ -12343,7 +12325,7 @@
         <v>2499</v>
       </c>
       <c r="G86" s="3">
-        <f>(1+F86)/(E86-D86)*1000</f>
+        <f t="shared" si="2"/>
         <v>39.545699009775696</v>
       </c>
     </row>
@@ -12367,7 +12349,7 @@
         <v>2499</v>
       </c>
       <c r="G87" s="3">
-        <f>(1+F87)/(E87-D87)*1000</f>
+        <f t="shared" si="2"/>
         <v>39.502583468958875</v>
       </c>
     </row>
@@ -12391,7 +12373,7 @@
         <v>2499</v>
       </c>
       <c r="G88" s="3">
-        <f>(1+F88)/(E88-D88)*1000</f>
+        <f t="shared" si="2"/>
         <v>39.262493325376134</v>
       </c>
     </row>
@@ -12415,7 +12397,7 @@
         <v>2499</v>
       </c>
       <c r="G89" s="3">
-        <f>(1+F89)/(E89-D89)*1000</f>
+        <f t="shared" si="2"/>
         <v>39.196011413878523</v>
       </c>
     </row>
@@ -12439,7 +12421,7 @@
         <v>2499</v>
       </c>
       <c r="G90" s="3">
-        <f>(1+F90)/(E90-D90)*1000</f>
+        <f t="shared" si="2"/>
         <v>38.570128207106158</v>
       </c>
     </row>
@@ -12463,7 +12445,7 @@
         <v>2499</v>
       </c>
       <c r="G91" s="3">
-        <f>(1+F91)/(E91-D91)*1000</f>
+        <f t="shared" si="2"/>
         <v>38.411898469669964</v>
       </c>
     </row>
@@ -12487,7 +12469,7 @@
         <v>2499</v>
       </c>
       <c r="G92" s="3">
-        <f>(1+F92)/(E92-D92)*1000</f>
+        <f t="shared" si="2"/>
         <v>38.116728669878633</v>
       </c>
     </row>
@@ -12511,7 +12493,7 @@
         <v>2499</v>
       </c>
       <c r="G93" s="3">
-        <f>(1+F93)/(E93-D93)*1000</f>
+        <f t="shared" si="2"/>
         <v>36.560932450021205</v>
       </c>
     </row>
@@ -12535,7 +12517,7 @@
         <v>2499</v>
       </c>
       <c r="G94" s="3">
-        <f>(1+F94)/(E94-D94)*1000</f>
+        <f t="shared" si="2"/>
         <v>36.389042531512914</v>
       </c>
     </row>
@@ -12559,7 +12541,7 @@
         <v>2499</v>
       </c>
       <c r="G95" s="3">
-        <f>(1+F95)/(E95-D95)*1000</f>
+        <f t="shared" si="2"/>
         <v>36.299221744685795</v>
       </c>
     </row>
@@ -12583,7 +12565,7 @@
         <v>2499</v>
       </c>
       <c r="G96" s="3">
-        <f>(1+F96)/(E96-D96)*1000</f>
+        <f t="shared" si="2"/>
         <v>36.044868652498636</v>
       </c>
     </row>
@@ -12607,7 +12589,7 @@
         <v>2499</v>
       </c>
       <c r="G97" s="3">
-        <f>(1+F97)/(E97-D97)*1000</f>
+        <f t="shared" ref="G97:G128" si="3">(1+F97)/(E97-D97)*1000</f>
         <v>36.03343903142116</v>
       </c>
     </row>
@@ -12631,7 +12613,7 @@
         <v>2499</v>
       </c>
       <c r="G98" s="3">
-        <f>(1+F98)/(E98-D98)*1000</f>
+        <f t="shared" si="3"/>
         <v>36.032400334380675</v>
       </c>
     </row>
@@ -12655,7 +12637,7 @@
         <v>2499</v>
       </c>
       <c r="G99" s="3">
-        <f>(1+F99)/(E99-D99)*1000</f>
+        <f t="shared" si="3"/>
         <v>35.030686881708377</v>
       </c>
     </row>
@@ -12679,7 +12661,7 @@
         <v>2499</v>
       </c>
       <c r="G100" s="3">
-        <f>(1+F100)/(E100-D100)*1000</f>
+        <f t="shared" si="3"/>
         <v>35.029705190001117</v>
       </c>
     </row>
@@ -12703,7 +12685,7 @@
         <v>2499</v>
       </c>
       <c r="G101" s="3">
-        <f>(1+F101)/(E101-D101)*1000</f>
+        <f t="shared" si="3"/>
         <v>34.889887515002656</v>
       </c>
     </row>
@@ -12727,7 +12709,7 @@
         <v>2499</v>
       </c>
       <c r="G102" s="3">
-        <f>(1+F102)/(E102-D102)*1000</f>
+        <f t="shared" si="3"/>
         <v>34.739592018231342</v>
       </c>
     </row>
@@ -12751,7 +12733,7 @@
         <v>2499</v>
       </c>
       <c r="G103" s="3">
-        <f>(1+F103)/(E103-D103)*1000</f>
+        <f t="shared" si="3"/>
         <v>34.621243595069934</v>
       </c>
     </row>
@@ -12775,7 +12757,7 @@
         <v>2499</v>
       </c>
       <c r="G104" s="3">
-        <f>(1+F104)/(E104-D104)*1000</f>
+        <f t="shared" si="3"/>
         <v>34.516084495374848</v>
       </c>
     </row>
@@ -12799,7 +12781,7 @@
         <v>2499</v>
       </c>
       <c r="G105" s="3">
-        <f>(1+F105)/(E105-D105)*1000</f>
+        <f t="shared" si="3"/>
         <v>32.187874184037391</v>
       </c>
     </row>
@@ -12823,7 +12805,7 @@
         <v>2499</v>
       </c>
       <c r="G106" s="3">
-        <f>(1+F106)/(E106-D106)*1000</f>
+        <f t="shared" si="3"/>
         <v>31.227750227962577</v>
       </c>
     </row>
@@ -12847,7 +12829,7 @@
         <v>2499</v>
       </c>
       <c r="G107" s="3">
-        <f>(1+F107)/(E107-D107)*1000</f>
+        <f t="shared" si="3"/>
         <v>30.737075059937297</v>
       </c>
     </row>
@@ -12871,7 +12853,7 @@
         <v>2499</v>
       </c>
       <c r="G108" s="3">
-        <f>(1+F108)/(E108-D108)*1000</f>
+        <f t="shared" si="3"/>
         <v>30.352698354883749</v>
       </c>
     </row>
@@ -12895,7 +12877,7 @@
         <v>2499</v>
       </c>
       <c r="G109" s="3">
-        <f>(1+F109)/(E109-D109)*1000</f>
+        <f t="shared" si="3"/>
         <v>29.204242792392879</v>
       </c>
     </row>
@@ -12919,7 +12901,7 @@
         <v>2499</v>
       </c>
       <c r="G110" s="3">
-        <f>(1+F110)/(E110-D110)*1000</f>
+        <f t="shared" si="3"/>
         <v>29.198785330530249</v>
       </c>
     </row>
@@ -12943,7 +12925,7 @@
         <v>2499</v>
       </c>
       <c r="G111" s="3">
-        <f>(1+F111)/(E111-D111)*1000</f>
+        <f t="shared" si="3"/>
         <v>29.098188928721076</v>
       </c>
     </row>
@@ -12967,7 +12949,7 @@
         <v>2499</v>
       </c>
       <c r="G112" s="3">
-        <f>(1+F112)/(E112-D112)*1000</f>
+        <f t="shared" si="3"/>
         <v>28.237739173650802</v>
       </c>
     </row>
@@ -12991,7 +12973,7 @@
         <v>2499</v>
       </c>
       <c r="G113" s="3">
-        <f>(1+F113)/(E113-D113)*1000</f>
+        <f t="shared" si="3"/>
         <v>24.854847689493358</v>
       </c>
     </row>
@@ -13015,7 +12997,7 @@
         <v>2499</v>
       </c>
       <c r="G114" s="3">
-        <f>(1+F114)/(E114-D114)*1000</f>
+        <f t="shared" si="3"/>
         <v>22.625867702026373</v>
       </c>
     </row>
@@ -13039,7 +13021,7 @@
         <v>2499</v>
       </c>
       <c r="G115" s="3">
-        <f>(1+F115)/(E115-D115)*1000</f>
+        <f t="shared" si="3"/>
         <v>21.413459644193953</v>
       </c>
     </row>
@@ -13063,7 +13045,7 @@
         <v>2499</v>
       </c>
       <c r="G116" s="3">
-        <f>(1+F116)/(E116-D116)*1000</f>
+        <f t="shared" si="3"/>
         <v>20.795727725696036</v>
       </c>
     </row>
@@ -13087,7 +13069,7 @@
         <v>2499</v>
       </c>
       <c r="G117" s="3">
-        <f>(1+F117)/(E117-D117)*1000</f>
+        <f t="shared" si="3"/>
         <v>20.76256758215748</v>
       </c>
     </row>
@@ -13111,7 +13093,7 @@
         <v>2499</v>
       </c>
       <c r="G118" s="3">
-        <f>(1+F118)/(E118-D118)*1000</f>
+        <f t="shared" si="3"/>
         <v>20.220484159272711</v>
       </c>
     </row>
@@ -13135,7 +13117,7 @@
         <v>2499</v>
       </c>
       <c r="G119" s="3">
-        <f>(1+F119)/(E119-D119)*1000</f>
+        <f t="shared" si="3"/>
         <v>20.05937575222659</v>
       </c>
     </row>
@@ -13159,7 +13141,7 @@
         <v>2499</v>
       </c>
       <c r="G120" s="3">
-        <f>(1+F120)/(E120-D120)*1000</f>
+        <f t="shared" si="3"/>
         <v>19.58510904988719</v>
       </c>
     </row>
@@ -13183,7 +13165,7 @@
         <v>2499</v>
       </c>
       <c r="G121" s="3">
-        <f>(1+F121)/(E121-D121)*1000</f>
+        <f t="shared" si="3"/>
         <v>19.446929329858815</v>
       </c>
     </row>
@@ -13207,7 +13189,7 @@
         <v>2499</v>
       </c>
       <c r="G122" s="3">
-        <f>(1+F122)/(E122-D122)*1000</f>
+        <f t="shared" si="3"/>
         <v>18.247642404601326</v>
       </c>
     </row>
@@ -13231,7 +13213,7 @@
         <v>2499</v>
       </c>
       <c r="G123" s="3">
-        <f>(1+F123)/(E123-D123)*1000</f>
+        <f t="shared" si="3"/>
         <v>16.706762897620958</v>
       </c>
     </row>
@@ -13255,7 +13237,7 @@
         <v>2499</v>
       </c>
       <c r="G124" s="3">
-        <f>(1+F124)/(E124-D124)*1000</f>
+        <f t="shared" si="3"/>
         <v>13.579060003150342</v>
       </c>
     </row>
@@ -13279,7 +13261,7 @@
         <v>2499</v>
       </c>
       <c r="G125" s="3">
-        <f>(1+F125)/(E125-D125)*1000</f>
+        <f t="shared" si="3"/>
         <v>13.522431008556994</v>
       </c>
     </row>
@@ -13303,7 +13285,7 @@
         <v>2499</v>
       </c>
       <c r="G126" s="3">
-        <f>(1+F126)/(E126-D126)*1000</f>
+        <f t="shared" si="3"/>
         <v>12.89464047163437</v>
       </c>
     </row>
@@ -13327,7 +13309,7 @@
         <v>2499</v>
       </c>
       <c r="G127" s="3">
-        <f>(1+F127)/(E127-D127)*1000</f>
+        <f t="shared" si="3"/>
         <v>10.081417527955772</v>
       </c>
     </row>
